--- a/docs/src/.vuepress/public/fhir/ImplementationGuide/dev.dsf/StructureDefinition-activity-definition.xlsx
+++ b/docs/src/.vuepress/public/fhir/ImplementationGuide/dev.dsf/StructureDefinition-activity-definition.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2447" uniqueCount="470">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2447" uniqueCount="469">
   <si>
     <t>Property</t>
   </si>
@@ -30,13 +30,13 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.0</t>
+    <t>2.0.0</t>
   </si>
   <si>
     <t>Name</t>
   </si>
   <si>
-    <t>DSF ActivityDefinition</t>
+    <t>ActivityDefinition</t>
   </si>
   <si>
     <t>Title</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-28</t>
+    <t>2025-10-27</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -103,9 +103,6 @@
   </si>
   <si>
     <t>Type</t>
-  </si>
-  <si>
-    <t>ActivityDefinition</t>
   </si>
   <si>
     <t>Base Definition</t>
@@ -294,7 +291,7 @@
     <t>ActivityDefinition.meta</t>
   </si>
   <si>
-    <t xml:space="preserve">Meta
+    <t xml:space="preserve">Meta {http://dsf.dev/fhir/StructureDefinition/meta|2.0.0}
 </t>
   </si>
   <si>
@@ -352,7 +349,7 @@
     <t>A human language.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/languages</t>
+    <t>http://hl7.org/fhir/ValueSet/languages|4.0.1</t>
   </si>
   <si>
     <t>Resource.language</t>
@@ -443,7 +440,7 @@
     <t>process-authorization</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://dsf.dev/fhir/StructureDefinition/extension-process-authorization|1.0.0}
+    <t xml:space="preserve">Extension {http://dsf.dev/fhir/StructureDefinition/extension-process-authorization|2.0.0}
 </t>
   </si>
   <si>
@@ -655,7 +652,7 @@
   </si>
   <si>
     <t>CodeableConcept
-Reference(Group)</t>
+Reference(Group|4.0.1)</t>
   </si>
   <si>
     <t>Type of individual the activity definition is intended for</t>
@@ -673,7 +670,7 @@
     <t>The possible types of subjects for an activity (E.g. Patient, Practitioner, Organization, Location, etc.).</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/subject-type</t>
+    <t>http://hl7.org/fhir/ValueSet/subject-type|4.0.1</t>
   </si>
   <si>
     <t>Definition.subject</t>
@@ -817,7 +814,7 @@
     <t>Countries and regions within which this artifact is targeted for use.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/jurisdiction</t>
+    <t>http://hl7.org/fhir/ValueSet/jurisdiction|4.0.1</t>
   </si>
   <si>
     <t>Definition.jurisdiction</t>
@@ -955,7 +952,7 @@
     <t>High-level categorization of the definition, used for searching, sorting, and filtering.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/definition-topic</t>
+    <t>http://hl7.org/fhir/ValueSet/definition-topic|4.0.1</t>
   </si>
   <si>
     <t>ActivityDefinition.author</t>
@@ -1025,7 +1022,7 @@
     <t>ActivityDefinition.library</t>
   </si>
   <si>
-    <t xml:space="preserve">canonical(Library)
+    <t xml:space="preserve">canonical(Library|4.0.1)
 </t>
   </si>
   <si>
@@ -1065,7 +1062,7 @@
     <t>ActivityDefinition.profile</t>
   </si>
   <si>
-    <t xml:space="preserve">canonical(StructureDefinition)
+    <t xml:space="preserve">canonical(StructureDefinition|4.0.1)
 </t>
   </si>
   <si>
@@ -1096,7 +1093,7 @@
     <t>Detailed type of the activity; e.g. CBC.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/procedure-code</t>
+    <t>http://hl7.org/fhir/ValueSet/procedure-code|4.0.1</t>
   </si>
   <si>
     <t>.code</t>
@@ -1170,7 +1167,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Location)
+    <t xml:space="preserve">Reference(Location|4.0.1)
 </t>
   </si>
   <si>
@@ -1279,7 +1276,7 @@
     <t>Defines roles played by participants for the action.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/action-participant-role</t>
+    <t>http://hl7.org/fhir/ValueSet/action-participant-role|4.0.1</t>
   </si>
   <si>
     <t>.role.code</t>
@@ -1288,7 +1285,7 @@
     <t>ActivityDefinition.product[x]</t>
   </si>
   <si>
-    <t>Reference(Medication|Substance)
+    <t>Reference(Medication|4.0.1|Substance|4.0.1)
 CodeableConcept</t>
   </si>
   <si>
@@ -1301,7 +1298,7 @@
     <t>Code describing the type of substance or medication.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/medication-codes</t>
+    <t>http://hl7.org/fhir/ValueSet/medication-codes|4.0.1</t>
   </si>
   <si>
     <t>.participation[typeCode=CSM].role</t>
@@ -1314,7 +1311,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Quantity {SimpleQuantity}
+    <t xml:space="preserve">Quantity {SimpleQuantity|4.0.1}
 </t>
   </si>
   <si>
@@ -1364,7 +1361,7 @@
     <t>A code that identifies the anatomical location.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/body-site</t>
+    <t>http://hl7.org/fhir/ValueSet/body-site|4.0.1</t>
   </si>
   <si>
     <t>.targetSiteCode {for classCode=PROC, SBADM}</t>
@@ -1373,7 +1370,7 @@
     <t>ActivityDefinition.specimenRequirement</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(SpecimenDefinition)
+    <t xml:space="preserve">Reference(SpecimenDefinition|4.0.1)
 </t>
   </si>
   <si>
@@ -1389,7 +1386,7 @@
     <t>ActivityDefinition.observationRequirement</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(ObservationDefinition)
+    <t xml:space="preserve">Reference(ObservationDefinition|4.0.1)
 </t>
   </si>
   <si>
@@ -1414,7 +1411,7 @@
     <t>ActivityDefinition.transform</t>
   </si>
   <si>
-    <t xml:space="preserve">canonical(StructureMap)
+    <t xml:space="preserve">canonical(StructureMap|4.0.1)
 </t>
   </si>
   <si>
@@ -1744,20 +1741,20 @@
         <v>29</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>30</v>
+        <v>7</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
+        <v>30</v>
+      </c>
+      <c r="B18" t="s" s="2">
         <v>31</v>
-      </c>
-      <c r="B18" t="s" s="2">
-        <v>32</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B19" t="s" s="2">
         <v>12</v>
@@ -1765,10 +1762,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="B20" t="s" s="2">
         <v>34</v>
-      </c>
-      <c r="B20" t="s" s="2">
-        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -1787,17 +1784,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="40.81640625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="40.81640625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="17.953125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="34.21875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="5.80859375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.23828125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="4.65625" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="39.7265625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="39.69921875" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="18.01953125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="33.17578125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.30078125" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="3.953125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.265625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="12.6875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="10.51171875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="70.7109375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="70.65234375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1806,156 +1803,156 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="8.53515625" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="14.72265625" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="15.13671875" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="80.078125" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="45.359375" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="14.7578125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="12.359375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="39.34765625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.046875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="9.46484375" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="7.80078125" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="13.609375" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="13.91796875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="15.01171875" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="14.62890625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="77.76953125" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="46.40234375" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.07421875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="17.98046875" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="16.2578125" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="13.54296875" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="11.3203125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="38.07421875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="8.22265625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="8.53125" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="48.2890625" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="114.75" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="31.65234375" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="41.19921875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="46.44140625" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="110.62890625" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="28.5078125" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="37.6953125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
+        <v>35</v>
+      </c>
+      <c r="B1" t="s" s="1">
         <v>36</v>
       </c>
-      <c r="B1" t="s" s="1">
+      <c r="C1" t="s" s="1">
         <v>37</v>
       </c>
-      <c r="C1" t="s" s="1">
+      <c r="D1" t="s" s="1">
         <v>38</v>
       </c>
-      <c r="D1" t="s" s="1">
+      <c r="E1" t="s" s="1">
         <v>39</v>
       </c>
-      <c r="E1" t="s" s="1">
+      <c r="F1" t="s" s="1">
         <v>40</v>
       </c>
-      <c r="F1" t="s" s="1">
+      <c r="G1" t="s" s="1">
         <v>41</v>
       </c>
-      <c r="G1" t="s" s="1">
+      <c r="H1" t="s" s="1">
         <v>42</v>
       </c>
-      <c r="H1" t="s" s="1">
+      <c r="I1" t="s" s="1">
         <v>43</v>
       </c>
-      <c r="I1" t="s" s="1">
+      <c r="J1" t="s" s="1">
         <v>44</v>
       </c>
-      <c r="J1" t="s" s="1">
+      <c r="K1" t="s" s="1">
         <v>45</v>
       </c>
-      <c r="K1" t="s" s="1">
+      <c r="L1" t="s" s="1">
         <v>46</v>
       </c>
-      <c r="L1" t="s" s="1">
+      <c r="M1" t="s" s="1">
         <v>47</v>
       </c>
-      <c r="M1" t="s" s="1">
+      <c r="N1" t="s" s="1">
         <v>48</v>
       </c>
-      <c r="N1" t="s" s="1">
+      <c r="O1" t="s" s="1">
         <v>49</v>
       </c>
-      <c r="O1" t="s" s="1">
+      <c r="P1" t="s" s="1">
         <v>50</v>
       </c>
-      <c r="P1" t="s" s="1">
+      <c r="Q1" t="s" s="1">
         <v>51</v>
       </c>
-      <c r="Q1" t="s" s="1">
+      <c r="R1" t="s" s="1">
         <v>52</v>
       </c>
-      <c r="R1" t="s" s="1">
+      <c r="S1" t="s" s="1">
         <v>53</v>
       </c>
-      <c r="S1" t="s" s="1">
+      <c r="T1" t="s" s="1">
         <v>54</v>
       </c>
-      <c r="T1" t="s" s="1">
+      <c r="U1" t="s" s="1">
         <v>55</v>
       </c>
-      <c r="U1" t="s" s="1">
+      <c r="V1" t="s" s="1">
         <v>56</v>
       </c>
-      <c r="V1" t="s" s="1">
+      <c r="W1" t="s" s="1">
         <v>57</v>
       </c>
-      <c r="W1" t="s" s="1">
+      <c r="X1" t="s" s="1">
         <v>58</v>
       </c>
-      <c r="X1" t="s" s="1">
+      <c r="Y1" t="s" s="1">
         <v>59</v>
       </c>
-      <c r="Y1" t="s" s="1">
+      <c r="Z1" t="s" s="1">
         <v>60</v>
       </c>
-      <c r="Z1" t="s" s="1">
+      <c r="AA1" t="s" s="1">
         <v>61</v>
       </c>
-      <c r="AA1" t="s" s="1">
+      <c r="AB1" t="s" s="1">
         <v>62</v>
       </c>
-      <c r="AB1" t="s" s="1">
+      <c r="AC1" t="s" s="1">
         <v>63</v>
       </c>
-      <c r="AC1" t="s" s="1">
+      <c r="AD1" t="s" s="1">
         <v>64</v>
       </c>
-      <c r="AD1" t="s" s="1">
+      <c r="AE1" t="s" s="1">
         <v>65</v>
       </c>
-      <c r="AE1" t="s" s="1">
+      <c r="AF1" t="s" s="1">
         <v>66</v>
       </c>
-      <c r="AF1" t="s" s="1">
+      <c r="AG1" t="s" s="1">
         <v>67</v>
       </c>
-      <c r="AG1" t="s" s="1">
+      <c r="AH1" t="s" s="1">
         <v>68</v>
       </c>
-      <c r="AH1" t="s" s="1">
+      <c r="AI1" t="s" s="1">
         <v>69</v>
       </c>
-      <c r="AI1" t="s" s="1">
+      <c r="AJ1" t="s" s="1">
         <v>70</v>
       </c>
-      <c r="AJ1" t="s" s="1">
+      <c r="AK1" t="s" s="1">
         <v>71</v>
       </c>
-      <c r="AK1" t="s" s="1">
+      <c r="AL1" t="s" s="1">
         <v>72</v>
       </c>
-      <c r="AL1" t="s" s="1">
+      <c r="AM1" t="s" s="1">
         <v>73</v>
       </c>
-      <c r="AM1" t="s" s="1">
+      <c r="AN1" t="s" s="1">
         <v>74</v>
-      </c>
-      <c r="AN1" t="s" s="1">
-        <v>75</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" t="s" s="2">
@@ -1963,28 +1960,28 @@
       </c>
       <c r="E2" s="2"/>
       <c r="F2" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G2" t="s" s="2">
         <v>76</v>
       </c>
-      <c r="G2" t="s" s="2">
+      <c r="H2" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I2" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J2" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="K2" t="s" s="2">
         <v>77</v>
       </c>
-      <c r="H2" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="I2" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="J2" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="K2" t="s" s="2">
+      <c r="L2" t="s" s="2">
         <v>78</v>
       </c>
-      <c r="L2" t="s" s="2">
+      <c r="M2" t="s" s="2">
         <v>79</v>
-      </c>
-      <c r="M2" t="s" s="2">
-        <v>80</v>
       </c>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
@@ -2035,25 +2032,25 @@
         <v>20</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="AG2" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH2" t="s" s="2">
         <v>76</v>
       </c>
-      <c r="AH2" t="s" s="2">
-        <v>77</v>
-      </c>
       <c r="AI2" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ2" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AK2" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AL2" t="s" s="2">
         <v>81</v>
-      </c>
-      <c r="AK2" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AL2" t="s" s="2">
-        <v>82</v>
       </c>
       <c r="AM2" t="s" s="2">
         <v>20</v>
@@ -2064,10 +2061,10 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
@@ -2075,31 +2072,31 @@
       </c>
       <c r="E3" s="2"/>
       <c r="F3" t="s" s="2">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G3" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="H3" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I3" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J3" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="H3" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="I3" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="J3" t="s" s="2">
+      <c r="K3" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="K3" t="s" s="2">
+      <c r="L3" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="L3" t="s" s="2">
+      <c r="M3" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="M3" t="s" s="2">
+      <c r="N3" t="s" s="2">
         <v>88</v>
-      </c>
-      <c r="N3" t="s" s="2">
-        <v>89</v>
       </c>
       <c r="O3" s="2"/>
       <c r="P3" t="s" s="2">
@@ -2149,13 +2146,13 @@
         <v>20</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AI3" t="s" s="2">
         <v>20</v>
@@ -2178,10 +2175,10 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
@@ -2189,28 +2186,28 @@
       </c>
       <c r="E4" s="2"/>
       <c r="F4" t="s" s="2">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G4" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="H4" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I4" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J4" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="H4" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="I4" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="J4" t="s" s="2">
-        <v>85</v>
-      </c>
       <c r="K4" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="L4" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="L4" t="s" s="2">
+      <c r="M4" t="s" s="2">
         <v>93</v>
-      </c>
-      <c r="M4" t="s" s="2">
-        <v>94</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
@@ -2261,19 +2258,19 @@
         <v>20</v>
       </c>
       <c r="AF4" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AG4" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH4" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AI4" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ4" t="s" s="2">
         <v>95</v>
-      </c>
-      <c r="AG4" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH4" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AI4" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AJ4" t="s" s="2">
-        <v>96</v>
       </c>
       <c r="AK4" t="s" s="2">
         <v>20</v>
@@ -2290,10 +2287,10 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -2301,31 +2298,31 @@
       </c>
       <c r="E5" s="2"/>
       <c r="F5" t="s" s="2">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G5" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="H5" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I5" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="H5" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="I5" t="s" s="2">
-        <v>85</v>
-      </c>
       <c r="J5" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K5" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="L5" t="s" s="2">
         <v>98</v>
       </c>
-      <c r="L5" t="s" s="2">
+      <c r="M5" t="s" s="2">
         <v>99</v>
       </c>
-      <c r="M5" t="s" s="2">
+      <c r="N5" t="s" s="2">
         <v>100</v>
-      </c>
-      <c r="N5" t="s" s="2">
-        <v>101</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
@@ -2375,19 +2372,19 @@
         <v>20</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AI5" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AK5" t="s" s="2">
         <v>20</v>
@@ -2404,10 +2401,10 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
@@ -2415,10 +2412,10 @@
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H6" t="s" s="2">
         <v>20</v>
@@ -2430,16 +2427,16 @@
         <v>20</v>
       </c>
       <c r="K6" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="L6" t="s" s="2">
         <v>104</v>
       </c>
-      <c r="L6" t="s" s="2">
+      <c r="M6" t="s" s="2">
         <v>105</v>
       </c>
-      <c r="M6" t="s" s="2">
+      <c r="N6" t="s" s="2">
         <v>106</v>
-      </c>
-      <c r="N6" t="s" s="2">
-        <v>107</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
@@ -2465,43 +2462,43 @@
         <v>20</v>
       </c>
       <c r="X6" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="Y6" t="s" s="2">
         <v>108</v>
       </c>
-      <c r="Y6" t="s" s="2">
+      <c r="Z6" t="s" s="2">
         <v>109</v>
       </c>
-      <c r="Z6" t="s" s="2">
+      <c r="AA6" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB6" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC6" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD6" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE6" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF6" t="s" s="2">
         <v>110</v>
       </c>
-      <c r="AA6" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AB6" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AC6" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AD6" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AE6" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AF6" t="s" s="2">
-        <v>111</v>
-      </c>
       <c r="AG6" t="s" s="2">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AI6" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AK6" t="s" s="2">
         <v>20</v>
@@ -2518,21 +2515,21 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H7" t="s" s="2">
         <v>20</v>
@@ -2544,16 +2541,16 @@
         <v>20</v>
       </c>
       <c r="K7" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="L7" t="s" s="2">
         <v>114</v>
       </c>
-      <c r="L7" t="s" s="2">
+      <c r="M7" t="s" s="2">
         <v>115</v>
       </c>
-      <c r="M7" t="s" s="2">
+      <c r="N7" t="s" s="2">
         <v>116</v>
-      </c>
-      <c r="N7" t="s" s="2">
-        <v>117</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
@@ -2603,25 +2600,25 @@
         <v>20</v>
       </c>
       <c r="AF7" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="AG7" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH7" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AI7" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ7" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AK7" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AL7" t="s" s="2">
         <v>118</v>
-      </c>
-      <c r="AG7" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH7" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AI7" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AJ7" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AK7" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AL7" t="s" s="2">
-        <v>119</v>
       </c>
       <c r="AM7" t="s" s="2">
         <v>20</v>
@@ -2632,22 +2629,22 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G8" t="s" s="2">
         <v>76</v>
       </c>
-      <c r="G8" t="s" s="2">
-        <v>77</v>
-      </c>
       <c r="H8" t="s" s="2">
         <v>20</v>
       </c>
@@ -2658,16 +2655,16 @@
         <v>20</v>
       </c>
       <c r="K8" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="L8" t="s" s="2">
         <v>122</v>
       </c>
-      <c r="L8" t="s" s="2">
+      <c r="M8" t="s" s="2">
         <v>123</v>
       </c>
-      <c r="M8" t="s" s="2">
+      <c r="N8" t="s" s="2">
         <v>124</v>
-      </c>
-      <c r="N8" t="s" s="2">
-        <v>125</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
@@ -2717,25 +2714,25 @@
         <v>20</v>
       </c>
       <c r="AF8" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="AG8" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH8" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI8" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ8" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AK8" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AL8" t="s" s="2">
         <v>126</v>
-      </c>
-      <c r="AG8" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI8" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AJ8" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AK8" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AL8" t="s" s="2">
-        <v>127</v>
       </c>
       <c r="AM8" t="s" s="2">
         <v>20</v>
@@ -2746,10 +2743,10 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
@@ -2757,10 +2754,10 @@
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H9" t="s" s="2">
         <v>20</v>
@@ -2772,13 +2769,13 @@
         <v>20</v>
       </c>
       <c r="K9" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="L9" t="s" s="2">
         <v>129</v>
       </c>
-      <c r="L9" t="s" s="2">
+      <c r="M9" t="s" s="2">
         <v>130</v>
-      </c>
-      <c r="M9" t="s" s="2">
-        <v>131</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
@@ -2817,29 +2814,29 @@
         <v>20</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AC9" s="2"/>
       <c r="AD9" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AE9" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="AF9" t="s" s="2">
         <v>133</v>
       </c>
-      <c r="AF9" t="s" s="2">
+      <c r="AG9" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH9" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI9" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ9" t="s" s="2">
         <v>134</v>
-      </c>
-      <c r="AG9" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH9" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI9" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AJ9" t="s" s="2">
-        <v>135</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>20</v>
@@ -2856,23 +2853,23 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="B10" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="C10" t="s" s="2">
         <v>136</v>
-      </c>
-      <c r="B10" t="s" s="2">
-        <v>128</v>
-      </c>
-      <c r="C10" t="s" s="2">
-        <v>137</v>
       </c>
       <c r="D10" t="s" s="2">
         <v>20</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H10" t="s" s="2">
         <v>20</v>
@@ -2884,13 +2881,13 @@
         <v>20</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="L10" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="M10" t="s" s="2">
         <v>130</v>
-      </c>
-      <c r="M10" t="s" s="2">
-        <v>131</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
@@ -2941,19 +2938,19 @@
         <v>20</v>
       </c>
       <c r="AF10" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="AG10" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH10" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI10" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="AJ10" t="s" s="2">
         <v>134</v>
-      </c>
-      <c r="AG10" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH10" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI10" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="AJ10" t="s" s="2">
-        <v>135</v>
       </c>
       <c r="AK10" t="s" s="2">
         <v>20</v>
@@ -2970,45 +2967,45 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G11" t="s" s="2">
         <v>76</v>
       </c>
-      <c r="G11" t="s" s="2">
-        <v>77</v>
-      </c>
       <c r="H11" t="s" s="2">
         <v>20</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J11" t="s" s="2">
         <v>20</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="L11" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="M11" t="s" s="2">
         <v>142</v>
       </c>
-      <c r="M11" t="s" s="2">
+      <c r="N11" t="s" s="2">
         <v>143</v>
       </c>
-      <c r="N11" t="s" s="2">
+      <c r="O11" t="s" s="2">
         <v>144</v>
-      </c>
-      <c r="O11" t="s" s="2">
-        <v>145</v>
       </c>
       <c r="P11" t="s" s="2">
         <v>20</v>
@@ -3057,25 +3054,25 @@
         <v>20</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="AG11" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH11" t="s" s="2">
         <v>76</v>
       </c>
-      <c r="AH11" t="s" s="2">
-        <v>77</v>
-      </c>
       <c r="AI11" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AK11" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AM11" t="s" s="2">
         <v>20</v>
@@ -3086,10 +3083,10 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -3097,34 +3094,34 @@
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G12" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="H12" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I12" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J12" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="G12" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="H12" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="I12" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="J12" t="s" s="2">
-        <v>85</v>
-      </c>
       <c r="K12" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="L12" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="M12" t="s" s="2">
         <v>148</v>
       </c>
-      <c r="M12" t="s" s="2">
+      <c r="N12" t="s" s="2">
         <v>149</v>
       </c>
-      <c r="N12" t="s" s="2">
+      <c r="O12" t="s" s="2">
         <v>150</v>
-      </c>
-      <c r="O12" t="s" s="2">
-        <v>151</v>
       </c>
       <c r="P12" t="s" s="2">
         <v>20</v>
@@ -3173,28 +3170,28 @@
         <v>20</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AI12" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AK12" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="AL12" t="s" s="2">
         <v>152</v>
       </c>
-      <c r="AL12" t="s" s="2">
+      <c r="AM12" t="s" s="2">
         <v>153</v>
-      </c>
-      <c r="AM12" t="s" s="2">
-        <v>154</v>
       </c>
       <c r="AN12" t="s" s="2">
         <v>20</v>
@@ -3202,10 +3199,10 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -3213,11 +3210,11 @@
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G13" t="s" s="2">
         <v>76</v>
       </c>
-      <c r="G13" t="s" s="2">
-        <v>77</v>
-      </c>
       <c r="H13" t="s" s="2">
         <v>20</v>
       </c>
@@ -3225,22 +3222,22 @@
         <v>20</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K13" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="L13" t="s" s="2">
         <v>156</v>
       </c>
-      <c r="L13" t="s" s="2">
+      <c r="M13" t="s" s="2">
         <v>157</v>
       </c>
-      <c r="M13" t="s" s="2">
+      <c r="N13" t="s" s="2">
         <v>158</v>
       </c>
-      <c r="N13" t="s" s="2">
+      <c r="O13" t="s" s="2">
         <v>159</v>
-      </c>
-      <c r="O13" t="s" s="2">
-        <v>160</v>
       </c>
       <c r="P13" t="s" s="2">
         <v>20</v>
@@ -3289,39 +3286,39 @@
         <v>20</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="AG13" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH13" t="s" s="2">
         <v>76</v>
       </c>
-      <c r="AH13" t="s" s="2">
-        <v>77</v>
-      </c>
       <c r="AI13" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AK13" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="AL13" t="s" s="2">
         <v>161</v>
       </c>
-      <c r="AL13" t="s" s="2">
+      <c r="AM13" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="AN13" t="s" s="2">
         <v>162</v>
-      </c>
-      <c r="AM13" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="AN13" t="s" s="2">
-        <v>163</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -3329,31 +3326,31 @@
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G14" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="H14" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I14" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J14" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="G14" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="H14" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="I14" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="J14" t="s" s="2">
-        <v>85</v>
-      </c>
       <c r="K14" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="L14" t="s" s="2">
         <v>165</v>
       </c>
-      <c r="L14" t="s" s="2">
+      <c r="M14" t="s" s="2">
         <v>166</v>
       </c>
-      <c r="M14" t="s" s="2">
+      <c r="N14" t="s" s="2">
         <v>167</v>
-      </c>
-      <c r="N14" t="s" s="2">
-        <v>168</v>
       </c>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
@@ -3403,28 +3400,28 @@
         <v>20</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AI14" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AK14" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="AL14" t="s" s="2">
         <v>169</v>
       </c>
-      <c r="AL14" t="s" s="2">
+      <c r="AM14" t="s" s="2">
         <v>170</v>
-      </c>
-      <c r="AM14" t="s" s="2">
-        <v>171</v>
       </c>
       <c r="AN14" t="s" s="2">
         <v>20</v>
@@ -3432,10 +3429,10 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -3443,34 +3440,34 @@
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G15" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="H15" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I15" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J15" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="H15" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="I15" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="J15" t="s" s="2">
-        <v>85</v>
-      </c>
       <c r="K15" t="s" s="2">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="L15" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="M15" t="s" s="2">
         <v>173</v>
       </c>
-      <c r="M15" t="s" s="2">
+      <c r="N15" t="s" s="2">
         <v>174</v>
       </c>
-      <c r="N15" t="s" s="2">
+      <c r="O15" t="s" s="2">
         <v>175</v>
-      </c>
-      <c r="O15" t="s" s="2">
-        <v>176</v>
       </c>
       <c r="P15" t="s" s="2">
         <v>20</v>
@@ -3519,25 +3516,25 @@
         <v>20</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AK15" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AM15" t="s" s="2">
         <v>20</v>
@@ -3548,10 +3545,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -3559,31 +3556,31 @@
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G16" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="H16" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I16" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J16" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="H16" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="I16" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="J16" t="s" s="2">
-        <v>85</v>
-      </c>
       <c r="K16" t="s" s="2">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="L16" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="M16" t="s" s="2">
         <v>179</v>
       </c>
-      <c r="M16" t="s" s="2">
+      <c r="N16" t="s" s="2">
         <v>180</v>
-      </c>
-      <c r="N16" t="s" s="2">
-        <v>181</v>
       </c>
       <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
@@ -3633,25 +3630,25 @@
         <v>20</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AI16" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AK16" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="AL16" t="s" s="2">
         <v>182</v>
-      </c>
-      <c r="AL16" t="s" s="2">
-        <v>183</v>
       </c>
       <c r="AM16" t="s" s="2">
         <v>20</v>
@@ -3662,10 +3659,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3673,10 +3670,10 @@
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>20</v>
@@ -3688,13 +3685,13 @@
         <v>20</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="L17" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="M17" t="s" s="2">
         <v>185</v>
-      </c>
-      <c r="M17" t="s" s="2">
-        <v>186</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
@@ -3745,19 +3742,19 @@
         <v>20</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AI17" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AK17" t="s" s="2">
         <v>20</v>
@@ -3774,10 +3771,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3785,31 +3782,31 @@
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G18" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="H18" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I18" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="G18" t="s" s="2">
+      <c r="J18" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="H18" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="I18" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="J18" t="s" s="2">
-        <v>85</v>
-      </c>
       <c r="K18" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="L18" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="M18" t="s" s="2">
         <v>188</v>
       </c>
-      <c r="M18" t="s" s="2">
+      <c r="N18" t="s" s="2">
         <v>189</v>
-      </c>
-      <c r="N18" t="s" s="2">
-        <v>190</v>
       </c>
       <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
@@ -3835,52 +3832,52 @@
         <v>20</v>
       </c>
       <c r="X18" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="Y18" t="s" s="2">
         <v>191</v>
       </c>
-      <c r="Y18" t="s" s="2">
+      <c r="Z18" t="s" s="2">
         <v>192</v>
       </c>
-      <c r="Z18" t="s" s="2">
+      <c r="AA18" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB18" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC18" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD18" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE18" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF18" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="AG18" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AH18" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AI18" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ18" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AK18" t="s" s="2">
         <v>193</v>
       </c>
-      <c r="AA18" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AB18" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AC18" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AD18" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AE18" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AF18" t="s" s="2">
-        <v>187</v>
-      </c>
-      <c r="AG18" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AH18" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AI18" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AJ18" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AK18" t="s" s="2">
+      <c r="AL18" t="s" s="2">
         <v>194</v>
       </c>
-      <c r="AL18" t="s" s="2">
+      <c r="AM18" t="s" s="2">
         <v>195</v>
-      </c>
-      <c r="AM18" t="s" s="2">
-        <v>196</v>
       </c>
       <c r="AN18" t="s" s="2">
         <v>20</v>
@@ -3888,10 +3885,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3899,34 +3896,34 @@
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G19" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="H19" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I19" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J19" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="H19" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="I19" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="J19" t="s" s="2">
-        <v>85</v>
-      </c>
       <c r="K19" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="L19" t="s" s="2">
         <v>198</v>
       </c>
-      <c r="L19" t="s" s="2">
+      <c r="M19" t="s" s="2">
         <v>199</v>
       </c>
-      <c r="M19" t="s" s="2">
+      <c r="N19" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="O19" t="s" s="2">
         <v>200</v>
-      </c>
-      <c r="N19" t="s" s="2">
-        <v>190</v>
-      </c>
-      <c r="O19" t="s" s="2">
-        <v>201</v>
       </c>
       <c r="P19" t="s" s="2">
         <v>20</v>
@@ -3975,28 +3972,28 @@
         <v>20</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AI19" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AK19" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="AL19" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="AM19" t="s" s="2">
         <v>202</v>
-      </c>
-      <c r="AL19" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="AM19" t="s" s="2">
-        <v>203</v>
       </c>
       <c r="AN19" t="s" s="2">
         <v>20</v>
@@ -4004,10 +4001,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -4015,10 +4012,10 @@
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>20</v>
@@ -4030,13 +4027,13 @@
         <v>20</v>
       </c>
       <c r="K20" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="L20" t="s" s="2">
         <v>205</v>
       </c>
-      <c r="L20" t="s" s="2">
+      <c r="M20" t="s" s="2">
         <v>206</v>
-      </c>
-      <c r="M20" t="s" s="2">
-        <v>207</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -4044,67 +4041,67 @@
         <v>20</v>
       </c>
       <c r="Q20" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="R20" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="S20" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="T20" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="U20" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="V20" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="W20" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="X20" t="s" s="2">
         <v>208</v>
       </c>
-      <c r="R20" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="S20" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="T20" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="U20" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="V20" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="W20" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="X20" t="s" s="2">
+      <c r="Y20" t="s" s="2">
         <v>209</v>
       </c>
-      <c r="Y20" t="s" s="2">
+      <c r="Z20" t="s" s="2">
         <v>210</v>
       </c>
-      <c r="Z20" t="s" s="2">
+      <c r="AA20" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB20" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC20" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD20" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE20" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF20" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="AG20" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH20" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AI20" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ20" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AK20" t="s" s="2">
         <v>211</v>
-      </c>
-      <c r="AA20" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AB20" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AC20" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AD20" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AE20" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AF20" t="s" s="2">
-        <v>204</v>
-      </c>
-      <c r="AG20" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH20" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AI20" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AJ20" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AK20" t="s" s="2">
-        <v>212</v>
       </c>
       <c r="AL20" t="s" s="2">
         <v>20</v>
@@ -4118,42 +4115,42 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="G21" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="H21" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I21" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J21" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="H21" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="I21" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="J21" t="s" s="2">
-        <v>85</v>
-      </c>
       <c r="K21" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="L21" t="s" s="2">
         <v>215</v>
       </c>
-      <c r="L21" t="s" s="2">
+      <c r="M21" t="s" s="2">
         <v>216</v>
       </c>
-      <c r="M21" t="s" s="2">
+      <c r="N21" t="s" s="2">
         <v>217</v>
-      </c>
-      <c r="N21" t="s" s="2">
-        <v>218</v>
       </c>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
@@ -4203,28 +4200,28 @@
         <v>20</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AI21" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AK21" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="AL21" t="s" s="2">
         <v>219</v>
       </c>
-      <c r="AL21" t="s" s="2">
+      <c r="AM21" t="s" s="2">
         <v>220</v>
-      </c>
-      <c r="AM21" t="s" s="2">
-        <v>221</v>
       </c>
       <c r="AN21" t="s" s="2">
         <v>20</v>
@@ -4232,10 +4229,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4243,34 +4240,34 @@
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G22" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="H22" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I22" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J22" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="H22" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="I22" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="J22" t="s" s="2">
-        <v>85</v>
-      </c>
       <c r="K22" t="s" s="2">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="L22" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="M22" t="s" s="2">
         <v>223</v>
       </c>
-      <c r="M22" t="s" s="2">
+      <c r="N22" t="s" s="2">
         <v>224</v>
       </c>
-      <c r="N22" t="s" s="2">
+      <c r="O22" t="s" s="2">
         <v>225</v>
-      </c>
-      <c r="O22" t="s" s="2">
-        <v>226</v>
       </c>
       <c r="P22" t="s" s="2">
         <v>20</v>
@@ -4319,28 +4316,28 @@
         <v>20</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AI22" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AK22" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="AL22" t="s" s="2">
         <v>227</v>
       </c>
-      <c r="AL22" t="s" s="2">
+      <c r="AM22" t="s" s="2">
         <v>228</v>
-      </c>
-      <c r="AM22" t="s" s="2">
-        <v>229</v>
       </c>
       <c r="AN22" t="s" s="2">
         <v>20</v>
@@ -4348,10 +4345,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4359,11 +4356,11 @@
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G23" t="s" s="2">
         <v>76</v>
       </c>
-      <c r="G23" t="s" s="2">
-        <v>77</v>
-      </c>
       <c r="H23" t="s" s="2">
         <v>20</v>
       </c>
@@ -4371,19 +4368,19 @@
         <v>20</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K23" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="L23" t="s" s="2">
         <v>231</v>
       </c>
-      <c r="L23" t="s" s="2">
+      <c r="M23" t="s" s="2">
         <v>232</v>
       </c>
-      <c r="M23" t="s" s="2">
+      <c r="N23" t="s" s="2">
         <v>233</v>
-      </c>
-      <c r="N23" t="s" s="2">
-        <v>234</v>
       </c>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
@@ -4433,25 +4430,25 @@
         <v>20</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="AG23" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH23" t="s" s="2">
         <v>76</v>
       </c>
-      <c r="AH23" t="s" s="2">
-        <v>77</v>
-      </c>
       <c r="AI23" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AK23" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="AL23" t="s" s="2">
         <v>235</v>
-      </c>
-      <c r="AL23" t="s" s="2">
-        <v>236</v>
       </c>
       <c r="AM23" t="s" s="2">
         <v>20</v>
@@ -4462,10 +4459,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4473,31 +4470,31 @@
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G24" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="H24" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I24" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J24" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="H24" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="I24" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="J24" t="s" s="2">
-        <v>85</v>
-      </c>
       <c r="K24" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="L24" t="s" s="2">
         <v>238</v>
       </c>
-      <c r="L24" t="s" s="2">
+      <c r="M24" t="s" s="2">
         <v>239</v>
       </c>
-      <c r="M24" t="s" s="2">
+      <c r="N24" t="s" s="2">
         <v>240</v>
-      </c>
-      <c r="N24" t="s" s="2">
-        <v>241</v>
       </c>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
@@ -4547,25 +4544,25 @@
         <v>20</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AK24" t="s" s="2">
+        <v>241</v>
+      </c>
+      <c r="AL24" t="s" s="2">
         <v>242</v>
-      </c>
-      <c r="AL24" t="s" s="2">
-        <v>243</v>
       </c>
       <c r="AM24" t="s" s="2">
         <v>20</v>
@@ -4576,10 +4573,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4587,11 +4584,11 @@
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G25" t="s" s="2">
         <v>76</v>
       </c>
-      <c r="G25" t="s" s="2">
-        <v>77</v>
-      </c>
       <c r="H25" t="s" s="2">
         <v>20</v>
       </c>
@@ -4599,22 +4596,22 @@
         <v>20</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K25" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="L25" t="s" s="2">
         <v>245</v>
       </c>
-      <c r="L25" t="s" s="2">
+      <c r="M25" t="s" s="2">
         <v>246</v>
       </c>
-      <c r="M25" t="s" s="2">
+      <c r="N25" t="s" s="2">
         <v>247</v>
       </c>
-      <c r="N25" t="s" s="2">
+      <c r="O25" t="s" s="2">
         <v>248</v>
-      </c>
-      <c r="O25" t="s" s="2">
-        <v>249</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>20</v>
@@ -4663,25 +4660,25 @@
         <v>20</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="AG25" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH25" t="s" s="2">
         <v>76</v>
       </c>
-      <c r="AH25" t="s" s="2">
-        <v>77</v>
-      </c>
       <c r="AI25" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>20</v>
@@ -4692,10 +4689,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4703,11 +4700,11 @@
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G26" t="s" s="2">
         <v>76</v>
       </c>
-      <c r="G26" t="s" s="2">
-        <v>77</v>
-      </c>
       <c r="H26" t="s" s="2">
         <v>20</v>
       </c>
@@ -4715,19 +4712,19 @@
         <v>20</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K26" t="s" s="2">
+        <v>251</v>
+      </c>
+      <c r="L26" t="s" s="2">
         <v>252</v>
       </c>
-      <c r="L26" t="s" s="2">
+      <c r="M26" t="s" s="2">
         <v>253</v>
       </c>
-      <c r="M26" t="s" s="2">
+      <c r="N26" t="s" s="2">
         <v>254</v>
-      </c>
-      <c r="N26" t="s" s="2">
-        <v>255</v>
       </c>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
@@ -4753,49 +4750,49 @@
         <v>20</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="Y26" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="Z26" t="s" s="2">
         <v>256</v>
       </c>
-      <c r="Z26" t="s" s="2">
+      <c r="AA26" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB26" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC26" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD26" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE26" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF26" t="s" s="2">
+        <v>250</v>
+      </c>
+      <c r="AG26" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH26" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI26" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ26" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AK26" t="s" s="2">
         <v>257</v>
       </c>
-      <c r="AA26" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AB26" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AC26" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AD26" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AE26" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AF26" t="s" s="2">
-        <v>251</v>
-      </c>
-      <c r="AG26" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH26" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI26" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AJ26" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AK26" t="s" s="2">
-        <v>258</v>
-      </c>
       <c r="AL26" t="s" s="2">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>20</v>
@@ -4806,10 +4803,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4817,10 +4814,10 @@
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>20</v>
@@ -4832,16 +4829,16 @@
         <v>20</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="L27" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="M27" t="s" s="2">
         <v>260</v>
       </c>
-      <c r="M27" t="s" s="2">
+      <c r="N27" t="s" s="2">
         <v>261</v>
-      </c>
-      <c r="N27" t="s" s="2">
-        <v>262</v>
       </c>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
@@ -4891,39 +4888,39 @@
         <v>20</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AI27" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AK27" t="s" s="2">
+        <v>262</v>
+      </c>
+      <c r="AL27" t="s" s="2">
         <v>263</v>
       </c>
-      <c r="AL27" t="s" s="2">
+      <c r="AM27" t="s" s="2">
         <v>264</v>
       </c>
-      <c r="AM27" t="s" s="2">
-        <v>265</v>
-      </c>
       <c r="AN27" t="s" s="2">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4931,10 +4928,10 @@
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>20</v>
@@ -4946,13 +4943,13 @@
         <v>20</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="L28" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="M28" t="s" s="2">
         <v>267</v>
-      </c>
-      <c r="M28" t="s" s="2">
-        <v>268</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
@@ -5003,25 +5000,25 @@
         <v>20</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AK28" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="AM28" t="s" s="2">
         <v>20</v>
@@ -5032,21 +5029,21 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>20</v>
@@ -5058,17 +5055,17 @@
         <v>20</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="L29" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="M29" t="s" s="2">
         <v>271</v>
-      </c>
-      <c r="M29" t="s" s="2">
-        <v>272</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="P29" t="s" s="2">
         <v>20</v>
@@ -5117,39 +5114,39 @@
         <v>20</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AI29" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="AM29" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5157,10 +5154,10 @@
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>20</v>
@@ -5172,16 +5169,16 @@
         <v>20</v>
       </c>
       <c r="K30" t="s" s="2">
+        <v>275</v>
+      </c>
+      <c r="L30" t="s" s="2">
         <v>276</v>
       </c>
-      <c r="L30" t="s" s="2">
+      <c r="M30" t="s" s="2">
         <v>277</v>
       </c>
-      <c r="M30" t="s" s="2">
+      <c r="N30" t="s" s="2">
         <v>278</v>
-      </c>
-      <c r="N30" t="s" s="2">
-        <v>279</v>
       </c>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
@@ -5231,39 +5228,39 @@
         <v>20</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AK30" t="s" s="2">
+        <v>279</v>
+      </c>
+      <c r="AL30" t="s" s="2">
         <v>280</v>
       </c>
-      <c r="AL30" t="s" s="2">
-        <v>281</v>
-      </c>
       <c r="AM30" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5271,10 +5268,10 @@
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>20</v>
@@ -5286,19 +5283,19 @@
         <v>20</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="L31" t="s" s="2">
+        <v>282</v>
+      </c>
+      <c r="M31" t="s" s="2">
         <v>283</v>
       </c>
-      <c r="M31" t="s" s="2">
+      <c r="N31" t="s" s="2">
         <v>284</v>
       </c>
-      <c r="N31" t="s" s="2">
+      <c r="O31" t="s" s="2">
         <v>285</v>
-      </c>
-      <c r="O31" t="s" s="2">
-        <v>286</v>
       </c>
       <c r="P31" t="s" s="2">
         <v>20</v>
@@ -5347,39 +5344,39 @@
         <v>20</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AK31" t="s" s="2">
+        <v>286</v>
+      </c>
+      <c r="AL31" t="s" s="2">
         <v>287</v>
       </c>
-      <c r="AL31" t="s" s="2">
-        <v>288</v>
-      </c>
       <c r="AM31" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5387,34 +5384,34 @@
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G32" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="H32" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I32" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J32" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="H32" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="I32" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="J32" t="s" s="2">
-        <v>85</v>
-      </c>
       <c r="K32" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="L32" t="s" s="2">
         <v>290</v>
       </c>
-      <c r="L32" t="s" s="2">
+      <c r="M32" t="s" s="2">
         <v>291</v>
       </c>
-      <c r="M32" t="s" s="2">
+      <c r="N32" t="s" s="2">
         <v>292</v>
       </c>
-      <c r="N32" t="s" s="2">
+      <c r="O32" t="s" s="2">
         <v>293</v>
-      </c>
-      <c r="O32" t="s" s="2">
-        <v>294</v>
       </c>
       <c r="P32" t="s" s="2">
         <v>20</v>
@@ -5463,39 +5460,39 @@
         <v>20</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AI32" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5503,11 +5500,11 @@
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G33" t="s" s="2">
         <v>76</v>
       </c>
-      <c r="G33" t="s" s="2">
-        <v>77</v>
-      </c>
       <c r="H33" t="s" s="2">
         <v>20</v>
       </c>
@@ -5518,17 +5515,17 @@
         <v>20</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="L33" t="s" s="2">
+        <v>296</v>
+      </c>
+      <c r="M33" t="s" s="2">
         <v>297</v>
-      </c>
-      <c r="M33" t="s" s="2">
-        <v>298</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="P33" t="s" s="2">
         <v>20</v>
@@ -5553,14 +5550,14 @@
         <v>20</v>
       </c>
       <c r="X33" t="s" s="2">
+        <v>299</v>
+      </c>
+      <c r="Y33" t="s" s="2">
         <v>300</v>
       </c>
-      <c r="Y33" t="s" s="2">
+      <c r="Z33" t="s" s="2">
         <v>301</v>
       </c>
-      <c r="Z33" t="s" s="2">
-        <v>302</v>
-      </c>
       <c r="AA33" t="s" s="2">
         <v>20</v>
       </c>
@@ -5577,25 +5574,25 @@
         <v>20</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="AG33" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH33" t="s" s="2">
         <v>76</v>
       </c>
-      <c r="AH33" t="s" s="2">
-        <v>77</v>
-      </c>
       <c r="AI33" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>20</v>
@@ -5606,10 +5603,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5617,11 +5614,11 @@
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G34" t="s" s="2">
         <v>76</v>
       </c>
-      <c r="G34" t="s" s="2">
-        <v>77</v>
-      </c>
       <c r="H34" t="s" s="2">
         <v>20</v>
       </c>
@@ -5632,13 +5629,13 @@
         <v>20</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="L34" t="s" s="2">
+        <v>303</v>
+      </c>
+      <c r="M34" t="s" s="2">
         <v>304</v>
-      </c>
-      <c r="M34" t="s" s="2">
-        <v>305</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
@@ -5689,25 +5686,25 @@
         <v>20</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="AG34" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH34" t="s" s="2">
         <v>76</v>
       </c>
-      <c r="AH34" t="s" s="2">
-        <v>77</v>
-      </c>
       <c r="AI34" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>20</v>
@@ -5718,10 +5715,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5729,11 +5726,11 @@
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G35" t="s" s="2">
         <v>76</v>
       </c>
-      <c r="G35" t="s" s="2">
-        <v>77</v>
-      </c>
       <c r="H35" t="s" s="2">
         <v>20</v>
       </c>
@@ -5744,13 +5741,13 @@
         <v>20</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="L35" t="s" s="2">
+        <v>307</v>
+      </c>
+      <c r="M35" t="s" s="2">
         <v>308</v>
-      </c>
-      <c r="M35" t="s" s="2">
-        <v>309</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
@@ -5801,19 +5798,19 @@
         <v>20</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="AG35" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH35" t="s" s="2">
         <v>76</v>
       </c>
-      <c r="AH35" t="s" s="2">
-        <v>77</v>
-      </c>
       <c r="AI35" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>20</v>
@@ -5830,10 +5827,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5841,11 +5838,11 @@
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G36" t="s" s="2">
         <v>76</v>
       </c>
-      <c r="G36" t="s" s="2">
-        <v>77</v>
-      </c>
       <c r="H36" t="s" s="2">
         <v>20</v>
       </c>
@@ -5856,13 +5853,13 @@
         <v>20</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="L36" t="s" s="2">
+        <v>310</v>
+      </c>
+      <c r="M36" t="s" s="2">
         <v>311</v>
-      </c>
-      <c r="M36" t="s" s="2">
-        <v>312</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
@@ -5913,25 +5910,25 @@
         <v>20</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="AG36" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH36" t="s" s="2">
         <v>76</v>
       </c>
-      <c r="AH36" t="s" s="2">
-        <v>77</v>
-      </c>
       <c r="AI36" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>20</v>
@@ -5942,10 +5939,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -5953,11 +5950,11 @@
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G37" t="s" s="2">
         <v>76</v>
       </c>
-      <c r="G37" t="s" s="2">
-        <v>77</v>
-      </c>
       <c r="H37" t="s" s="2">
         <v>20</v>
       </c>
@@ -5968,13 +5965,13 @@
         <v>20</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="L37" t="s" s="2">
+        <v>314</v>
+      </c>
+      <c r="M37" t="s" s="2">
         <v>315</v>
-      </c>
-      <c r="M37" t="s" s="2">
-        <v>316</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
@@ -6025,25 +6022,25 @@
         <v>20</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="AG37" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH37" t="s" s="2">
         <v>76</v>
       </c>
-      <c r="AH37" t="s" s="2">
-        <v>77</v>
-      </c>
       <c r="AI37" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>20</v>
@@ -6054,10 +6051,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6065,11 +6062,11 @@
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G38" t="s" s="2">
         <v>76</v>
       </c>
-      <c r="G38" t="s" s="2">
-        <v>77</v>
-      </c>
       <c r="H38" t="s" s="2">
         <v>20</v>
       </c>
@@ -6080,19 +6077,19 @@
         <v>20</v>
       </c>
       <c r="K38" t="s" s="2">
+        <v>317</v>
+      </c>
+      <c r="L38" t="s" s="2">
         <v>318</v>
       </c>
-      <c r="L38" t="s" s="2">
+      <c r="M38" t="s" s="2">
         <v>319</v>
       </c>
-      <c r="M38" t="s" s="2">
+      <c r="N38" t="s" s="2">
         <v>320</v>
       </c>
-      <c r="N38" t="s" s="2">
+      <c r="O38" t="s" s="2">
         <v>321</v>
-      </c>
-      <c r="O38" t="s" s="2">
-        <v>322</v>
       </c>
       <c r="P38" t="s" s="2">
         <v>20</v>
@@ -6141,25 +6138,25 @@
         <v>20</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="AG38" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH38" t="s" s="2">
         <v>76</v>
       </c>
-      <c r="AH38" t="s" s="2">
-        <v>77</v>
-      </c>
       <c r="AI38" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>20</v>
@@ -6170,10 +6167,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6181,11 +6178,11 @@
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G39" t="s" s="2">
         <v>76</v>
       </c>
-      <c r="G39" t="s" s="2">
-        <v>77</v>
-      </c>
       <c r="H39" t="s" s="2">
         <v>20</v>
       </c>
@@ -6196,13 +6193,13 @@
         <v>20</v>
       </c>
       <c r="K39" t="s" s="2">
+        <v>324</v>
+      </c>
+      <c r="L39" t="s" s="2">
         <v>325</v>
       </c>
-      <c r="L39" t="s" s="2">
+      <c r="M39" t="s" s="2">
         <v>326</v>
-      </c>
-      <c r="M39" t="s" s="2">
-        <v>327</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
@@ -6253,25 +6250,25 @@
         <v>20</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="AG39" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH39" t="s" s="2">
         <v>76</v>
       </c>
-      <c r="AH39" t="s" s="2">
-        <v>77</v>
-      </c>
       <c r="AI39" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>20</v>
@@ -6282,10 +6279,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6293,31 +6290,31 @@
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G40" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="H40" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I40" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J40" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="G40" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="H40" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="I40" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="J40" t="s" s="2">
-        <v>85</v>
-      </c>
       <c r="K40" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="L40" t="s" s="2">
+        <v>329</v>
+      </c>
+      <c r="M40" t="s" s="2">
         <v>330</v>
       </c>
-      <c r="M40" t="s" s="2">
+      <c r="N40" t="s" s="2">
         <v>331</v>
-      </c>
-      <c r="N40" t="s" s="2">
-        <v>332</v>
       </c>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
@@ -6325,67 +6322,67 @@
       </c>
       <c r="Q40" s="2"/>
       <c r="R40" t="s" s="2">
+        <v>332</v>
+      </c>
+      <c r="S40" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="T40" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="U40" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="V40" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="W40" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="X40" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="Y40" t="s" s="2">
         <v>333</v>
       </c>
-      <c r="S40" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="T40" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="U40" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="V40" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="W40" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="X40" t="s" s="2">
-        <v>191</v>
-      </c>
-      <c r="Y40" t="s" s="2">
+      <c r="Z40" t="s" s="2">
         <v>334</v>
       </c>
-      <c r="Z40" t="s" s="2">
+      <c r="AA40" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB40" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC40" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD40" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE40" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF40" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="AG40" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH40" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AI40" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ40" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AK40" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AL40" t="s" s="2">
         <v>335</v>
-      </c>
-      <c r="AA40" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AB40" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AC40" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AD40" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AE40" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AF40" t="s" s="2">
-        <v>329</v>
-      </c>
-      <c r="AG40" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH40" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AI40" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AJ40" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AK40" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AL40" t="s" s="2">
-        <v>336</v>
       </c>
       <c r="AM40" t="s" s="2">
         <v>20</v>
@@ -6396,10 +6393,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6407,10 +6404,10 @@
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>20</v>
@@ -6422,17 +6419,17 @@
         <v>20</v>
       </c>
       <c r="K41" t="s" s="2">
+        <v>337</v>
+      </c>
+      <c r="L41" t="s" s="2">
         <v>338</v>
       </c>
-      <c r="L41" t="s" s="2">
+      <c r="M41" t="s" s="2">
         <v>339</v>
-      </c>
-      <c r="M41" t="s" s="2">
-        <v>340</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="P41" t="s" s="2">
         <v>20</v>
@@ -6481,19 +6478,19 @@
         <v>20</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AI41" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>20</v>
@@ -6510,10 +6507,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6521,34 +6518,34 @@
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G42" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="H42" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I42" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J42" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="H42" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="I42" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="J42" t="s" s="2">
-        <v>85</v>
-      </c>
       <c r="K42" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="L42" t="s" s="2">
+        <v>342</v>
+      </c>
+      <c r="M42" t="s" s="2">
         <v>343</v>
       </c>
-      <c r="M42" t="s" s="2">
+      <c r="N42" t="s" s="2">
         <v>344</v>
       </c>
-      <c r="N42" t="s" s="2">
+      <c r="O42" t="s" s="2">
         <v>345</v>
-      </c>
-      <c r="O42" t="s" s="2">
-        <v>346</v>
       </c>
       <c r="P42" t="s" s="2">
         <v>20</v>
@@ -6573,49 +6570,49 @@
         <v>20</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="Y42" t="s" s="2">
+        <v>346</v>
+      </c>
+      <c r="Z42" t="s" s="2">
         <v>347</v>
       </c>
-      <c r="Z42" t="s" s="2">
+      <c r="AA42" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB42" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC42" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD42" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE42" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF42" t="s" s="2">
+        <v>341</v>
+      </c>
+      <c r="AG42" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH42" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AI42" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ42" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AK42" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AL42" t="s" s="2">
         <v>348</v>
-      </c>
-      <c r="AA42" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AB42" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AC42" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AD42" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AE42" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AF42" t="s" s="2">
-        <v>342</v>
-      </c>
-      <c r="AG42" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH42" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AI42" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AJ42" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AK42" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AL42" t="s" s="2">
-        <v>349</v>
       </c>
       <c r="AM42" t="s" s="2">
         <v>20</v>
@@ -6626,10 +6623,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6637,10 +6634,10 @@
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>20</v>
@@ -6652,13 +6649,13 @@
         <v>20</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="L43" t="s" s="2">
+        <v>350</v>
+      </c>
+      <c r="M43" t="s" s="2">
         <v>351</v>
-      </c>
-      <c r="M43" t="s" s="2">
-        <v>352</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" s="2"/>
@@ -6685,14 +6682,14 @@
         <v>20</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="Y43" t="s" s="2">
+        <v>352</v>
+      </c>
+      <c r="Z43" t="s" s="2">
         <v>353</v>
       </c>
-      <c r="Z43" t="s" s="2">
-        <v>354</v>
-      </c>
       <c r="AA43" t="s" s="2">
         <v>20</v>
       </c>
@@ -6709,19 +6706,19 @@
         <v>20</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AI43" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>20</v>
@@ -6738,10 +6735,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6749,10 +6746,10 @@
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>20</v>
@@ -6764,13 +6761,13 @@
         <v>20</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="L44" t="s" s="2">
+        <v>355</v>
+      </c>
+      <c r="M44" t="s" s="2">
         <v>356</v>
-      </c>
-      <c r="M44" t="s" s="2">
-        <v>357</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
@@ -6797,14 +6794,14 @@
         <v>20</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="Y44" t="s" s="2">
+        <v>357</v>
+      </c>
+      <c r="Z44" t="s" s="2">
         <v>358</v>
       </c>
-      <c r="Z44" t="s" s="2">
-        <v>359</v>
-      </c>
       <c r="AA44" t="s" s="2">
         <v>20</v>
       </c>
@@ -6821,19 +6818,19 @@
         <v>20</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AI44" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>20</v>
@@ -6850,10 +6847,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -6861,31 +6858,31 @@
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G45" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="H45" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I45" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="H45" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="I45" t="s" s="2">
-        <v>85</v>
-      </c>
       <c r="J45" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="L45" t="s" s="2">
+        <v>360</v>
+      </c>
+      <c r="M45" t="s" s="2">
         <v>361</v>
       </c>
-      <c r="M45" t="s" s="2">
+      <c r="N45" t="s" s="2">
         <v>362</v>
-      </c>
-      <c r="N45" t="s" s="2">
-        <v>363</v>
       </c>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
@@ -6935,19 +6932,19 @@
         <v>20</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AI45" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>20</v>
@@ -6964,10 +6961,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -6975,10 +6972,10 @@
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>20</v>
@@ -6990,17 +6987,17 @@
         <v>20</v>
       </c>
       <c r="K46" t="s" s="2">
+        <v>364</v>
+      </c>
+      <c r="L46" t="s" s="2">
         <v>365</v>
       </c>
-      <c r="L46" t="s" s="2">
+      <c r="M46" t="s" s="2">
         <v>366</v>
-      </c>
-      <c r="M46" t="s" s="2">
-        <v>367</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="P46" t="s" s="2">
         <v>20</v>
@@ -7049,25 +7046,25 @@
         <v>20</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AI46" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>20</v>
@@ -7078,21 +7075,21 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>20</v>
@@ -7104,19 +7101,19 @@
         <v>20</v>
       </c>
       <c r="K47" t="s" s="2">
+        <v>371</v>
+      </c>
+      <c r="L47" t="s" s="2">
         <v>372</v>
       </c>
-      <c r="L47" t="s" s="2">
+      <c r="M47" t="s" s="2">
         <v>373</v>
       </c>
-      <c r="M47" t="s" s="2">
+      <c r="N47" t="s" s="2">
         <v>374</v>
       </c>
-      <c r="N47" t="s" s="2">
+      <c r="O47" t="s" s="2">
         <v>375</v>
-      </c>
-      <c r="O47" t="s" s="2">
-        <v>376</v>
       </c>
       <c r="P47" t="s" s="2">
         <v>20</v>
@@ -7165,25 +7162,25 @@
         <v>20</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AI47" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="AM47" t="s" s="2">
         <v>20</v>
@@ -7194,10 +7191,10 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7205,11 +7202,11 @@
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G48" t="s" s="2">
         <v>76</v>
       </c>
-      <c r="G48" t="s" s="2">
-        <v>77</v>
-      </c>
       <c r="H48" t="s" s="2">
         <v>20</v>
       </c>
@@ -7220,13 +7217,13 @@
         <v>20</v>
       </c>
       <c r="K48" t="s" s="2">
+        <v>378</v>
+      </c>
+      <c r="L48" t="s" s="2">
         <v>379</v>
       </c>
-      <c r="L48" t="s" s="2">
+      <c r="M48" t="s" s="2">
         <v>380</v>
-      </c>
-      <c r="M48" t="s" s="2">
-        <v>381</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" s="2"/>
@@ -7277,25 +7274,25 @@
         <v>20</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="AG48" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH48" t="s" s="2">
         <v>76</v>
       </c>
-      <c r="AH48" t="s" s="2">
-        <v>77</v>
-      </c>
       <c r="AI48" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="AM48" t="s" s="2">
         <v>20</v>
@@ -7306,10 +7303,10 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7317,10 +7314,10 @@
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>20</v>
@@ -7332,13 +7329,13 @@
         <v>20</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="L49" t="s" s="2">
+        <v>383</v>
+      </c>
+      <c r="M49" t="s" s="2">
         <v>384</v>
-      </c>
-      <c r="M49" t="s" s="2">
-        <v>385</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" s="2"/>
@@ -7389,25 +7386,25 @@
         <v>20</v>
       </c>
       <c r="AF49" t="s" s="2">
+        <v>385</v>
+      </c>
+      <c r="AG49" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH49" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AI49" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ49" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AK49" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AL49" t="s" s="2">
         <v>386</v>
-      </c>
-      <c r="AG49" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH49" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AI49" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AJ49" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AK49" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AL49" t="s" s="2">
-        <v>387</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>20</v>
@@ -7418,22 +7415,22 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G50" t="s" s="2">
         <v>76</v>
       </c>
-      <c r="G50" t="s" s="2">
-        <v>77</v>
-      </c>
       <c r="H50" t="s" s="2">
         <v>20</v>
       </c>
@@ -7444,16 +7441,16 @@
         <v>20</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="L50" t="s" s="2">
+        <v>388</v>
+      </c>
+      <c r="M50" t="s" s="2">
         <v>389</v>
       </c>
-      <c r="M50" t="s" s="2">
-        <v>390</v>
-      </c>
       <c r="N50" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
@@ -7503,25 +7500,25 @@
         <v>20</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="AG50" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH50" t="s" s="2">
         <v>76</v>
       </c>
-      <c r="AH50" t="s" s="2">
-        <v>77</v>
-      </c>
       <c r="AI50" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>20</v>
@@ -7532,45 +7529,45 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G51" t="s" s="2">
         <v>76</v>
       </c>
-      <c r="G51" t="s" s="2">
-        <v>77</v>
-      </c>
       <c r="H51" t="s" s="2">
         <v>20</v>
       </c>
       <c r="I51" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="L51" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="M51" t="s" s="2">
         <v>394</v>
       </c>
-      <c r="M51" t="s" s="2">
-        <v>395</v>
-      </c>
       <c r="N51" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="O51" t="s" s="2">
         <v>144</v>
-      </c>
-      <c r="O51" t="s" s="2">
-        <v>145</v>
       </c>
       <c r="P51" t="s" s="2">
         <v>20</v>
@@ -7619,25 +7616,25 @@
         <v>20</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="AG51" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH51" t="s" s="2">
         <v>76</v>
       </c>
-      <c r="AH51" t="s" s="2">
-        <v>77</v>
-      </c>
       <c r="AI51" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AK51" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>20</v>
@@ -7648,10 +7645,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7659,10 +7656,10 @@
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>20</v>
@@ -7674,13 +7671,13 @@
         <v>20</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="L52" t="s" s="2">
+        <v>397</v>
+      </c>
+      <c r="M52" t="s" s="2">
         <v>398</v>
-      </c>
-      <c r="M52" t="s" s="2">
-        <v>399</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" s="2"/>
@@ -7707,49 +7704,49 @@
         <v>20</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="Y52" t="s" s="2">
+        <v>399</v>
+      </c>
+      <c r="Z52" t="s" s="2">
         <v>400</v>
       </c>
-      <c r="Z52" t="s" s="2">
+      <c r="AA52" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB52" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC52" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD52" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE52" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF52" t="s" s="2">
+        <v>396</v>
+      </c>
+      <c r="AG52" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AH52" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AI52" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ52" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AK52" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AL52" t="s" s="2">
         <v>401</v>
-      </c>
-      <c r="AA52" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AB52" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AC52" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AD52" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AE52" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AF52" t="s" s="2">
-        <v>397</v>
-      </c>
-      <c r="AG52" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AH52" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AI52" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AJ52" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AK52" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AL52" t="s" s="2">
-        <v>402</v>
       </c>
       <c r="AM52" t="s" s="2">
         <v>20</v>
@@ -7760,10 +7757,10 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -7771,10 +7768,10 @@
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H53" t="s" s="2">
         <v>20</v>
@@ -7786,13 +7783,13 @@
         <v>20</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="L53" t="s" s="2">
+        <v>403</v>
+      </c>
+      <c r="M53" t="s" s="2">
         <v>404</v>
-      </c>
-      <c r="M53" t="s" s="2">
-        <v>405</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" s="2"/>
@@ -7819,49 +7816,49 @@
         <v>20</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="Y53" t="s" s="2">
+        <v>405</v>
+      </c>
+      <c r="Z53" t="s" s="2">
         <v>406</v>
       </c>
-      <c r="Z53" t="s" s="2">
+      <c r="AA53" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB53" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC53" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD53" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE53" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF53" t="s" s="2">
+        <v>402</v>
+      </c>
+      <c r="AG53" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH53" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AI53" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ53" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AK53" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AL53" t="s" s="2">
         <v>407</v>
-      </c>
-      <c r="AA53" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AB53" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AC53" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AD53" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AE53" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AF53" t="s" s="2">
-        <v>403</v>
-      </c>
-      <c r="AG53" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH53" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AI53" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AJ53" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AK53" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AL53" t="s" s="2">
-        <v>408</v>
       </c>
       <c r="AM53" t="s" s="2">
         <v>20</v>
@@ -7872,10 +7869,10 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -7883,10 +7880,10 @@
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H54" t="s" s="2">
         <v>20</v>
@@ -7898,13 +7895,13 @@
         <v>20</v>
       </c>
       <c r="K54" t="s" s="2">
+        <v>409</v>
+      </c>
+      <c r="L54" t="s" s="2">
         <v>410</v>
       </c>
-      <c r="L54" t="s" s="2">
+      <c r="M54" t="s" s="2">
         <v>411</v>
-      </c>
-      <c r="M54" t="s" s="2">
-        <v>412</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" s="2"/>
@@ -7931,49 +7928,49 @@
         <v>20</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="Y54" t="s" s="2">
+        <v>412</v>
+      </c>
+      <c r="Z54" t="s" s="2">
         <v>413</v>
       </c>
-      <c r="Z54" t="s" s="2">
+      <c r="AA54" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB54" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC54" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD54" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE54" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF54" t="s" s="2">
+        <v>408</v>
+      </c>
+      <c r="AG54" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH54" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AI54" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ54" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AK54" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AL54" t="s" s="2">
         <v>414</v>
-      </c>
-      <c r="AA54" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AB54" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AC54" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AD54" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AE54" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AF54" t="s" s="2">
-        <v>409</v>
-      </c>
-      <c r="AG54" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH54" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AI54" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AJ54" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AK54" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AL54" t="s" s="2">
-        <v>415</v>
       </c>
       <c r="AM54" t="s" s="2">
         <v>20</v>
@@ -7984,21 +7981,21 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>20</v>
@@ -8010,13 +8007,13 @@
         <v>20</v>
       </c>
       <c r="K55" t="s" s="2">
+        <v>417</v>
+      </c>
+      <c r="L55" t="s" s="2">
         <v>418</v>
       </c>
-      <c r="L55" t="s" s="2">
+      <c r="M55" t="s" s="2">
         <v>419</v>
-      </c>
-      <c r="M55" t="s" s="2">
-        <v>420</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" s="2"/>
@@ -8067,25 +8064,25 @@
         <v>20</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="AG55" t="s" s="2">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AI55" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AK55" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="AM55" t="s" s="2">
         <v>20</v>
@@ -8096,10 +8093,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8107,11 +8104,11 @@
       </c>
       <c r="E56" s="2"/>
       <c r="F56" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G56" t="s" s="2">
         <v>76</v>
       </c>
-      <c r="G56" t="s" s="2">
-        <v>77</v>
-      </c>
       <c r="H56" t="s" s="2">
         <v>20</v>
       </c>
@@ -8122,16 +8119,16 @@
         <v>20</v>
       </c>
       <c r="K56" t="s" s="2">
+        <v>422</v>
+      </c>
+      <c r="L56" t="s" s="2">
         <v>423</v>
       </c>
-      <c r="L56" t="s" s="2">
+      <c r="M56" t="s" s="2">
         <v>424</v>
       </c>
-      <c r="M56" t="s" s="2">
+      <c r="N56" t="s" s="2">
         <v>425</v>
-      </c>
-      <c r="N56" t="s" s="2">
-        <v>426</v>
       </c>
       <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
@@ -8181,25 +8178,25 @@
         <v>20</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="AG56" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH56" t="s" s="2">
         <v>76</v>
       </c>
-      <c r="AH56" t="s" s="2">
-        <v>77</v>
-      </c>
       <c r="AI56" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AK56" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="AM56" t="s" s="2">
         <v>20</v>
@@ -8210,10 +8207,10 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8221,11 +8218,11 @@
       </c>
       <c r="E57" s="2"/>
       <c r="F57" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G57" t="s" s="2">
         <v>76</v>
       </c>
-      <c r="G57" t="s" s="2">
-        <v>77</v>
-      </c>
       <c r="H57" t="s" s="2">
         <v>20</v>
       </c>
@@ -8236,19 +8233,19 @@
         <v>20</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="L57" t="s" s="2">
+        <v>428</v>
+      </c>
+      <c r="M57" t="s" s="2">
         <v>429</v>
       </c>
-      <c r="M57" t="s" s="2">
+      <c r="N57" t="s" s="2">
         <v>430</v>
       </c>
-      <c r="N57" t="s" s="2">
+      <c r="O57" t="s" s="2">
         <v>431</v>
-      </c>
-      <c r="O57" t="s" s="2">
-        <v>432</v>
       </c>
       <c r="P57" t="s" s="2">
         <v>20</v>
@@ -8273,49 +8270,49 @@
         <v>20</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="Y57" t="s" s="2">
+        <v>432</v>
+      </c>
+      <c r="Z57" t="s" s="2">
         <v>433</v>
       </c>
-      <c r="Z57" t="s" s="2">
+      <c r="AA57" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB57" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC57" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD57" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE57" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF57" t="s" s="2">
+        <v>427</v>
+      </c>
+      <c r="AG57" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH57" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI57" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ57" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AK57" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AL57" t="s" s="2">
         <v>434</v>
-      </c>
-      <c r="AA57" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AB57" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AC57" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AD57" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AE57" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AF57" t="s" s="2">
-        <v>428</v>
-      </c>
-      <c r="AG57" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH57" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI57" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AJ57" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AK57" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AL57" t="s" s="2">
-        <v>435</v>
       </c>
       <c r="AM57" t="s" s="2">
         <v>20</v>
@@ -8326,10 +8323,10 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8337,11 +8334,11 @@
       </c>
       <c r="E58" s="2"/>
       <c r="F58" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G58" t="s" s="2">
         <v>76</v>
       </c>
-      <c r="G58" t="s" s="2">
-        <v>77</v>
-      </c>
       <c r="H58" t="s" s="2">
         <v>20</v>
       </c>
@@ -8352,17 +8349,17 @@
         <v>20</v>
       </c>
       <c r="K58" t="s" s="2">
+        <v>436</v>
+      </c>
+      <c r="L58" t="s" s="2">
         <v>437</v>
       </c>
-      <c r="L58" t="s" s="2">
+      <c r="M58" t="s" s="2">
         <v>438</v>
-      </c>
-      <c r="M58" t="s" s="2">
-        <v>439</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="P58" t="s" s="2">
         <v>20</v>
@@ -8411,19 +8408,19 @@
         <v>20</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="AG58" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH58" t="s" s="2">
         <v>76</v>
       </c>
-      <c r="AH58" t="s" s="2">
-        <v>77</v>
-      </c>
       <c r="AI58" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AK58" t="s" s="2">
         <v>20</v>
@@ -8440,10 +8437,10 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -8451,11 +8448,11 @@
       </c>
       <c r="E59" s="2"/>
       <c r="F59" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G59" t="s" s="2">
         <v>76</v>
       </c>
-      <c r="G59" t="s" s="2">
-        <v>77</v>
-      </c>
       <c r="H59" t="s" s="2">
         <v>20</v>
       </c>
@@ -8466,17 +8463,17 @@
         <v>20</v>
       </c>
       <c r="K59" t="s" s="2">
+        <v>441</v>
+      </c>
+      <c r="L59" t="s" s="2">
         <v>442</v>
       </c>
-      <c r="L59" t="s" s="2">
+      <c r="M59" t="s" s="2">
         <v>443</v>
-      </c>
-      <c r="M59" t="s" s="2">
-        <v>444</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="P59" t="s" s="2">
         <v>20</v>
@@ -8525,19 +8522,19 @@
         <v>20</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="AG59" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH59" t="s" s="2">
         <v>76</v>
       </c>
-      <c r="AH59" t="s" s="2">
-        <v>77</v>
-      </c>
       <c r="AI59" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AK59" t="s" s="2">
         <v>20</v>
@@ -8554,10 +8551,10 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -8565,11 +8562,11 @@
       </c>
       <c r="E60" s="2"/>
       <c r="F60" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G60" t="s" s="2">
         <v>76</v>
       </c>
-      <c r="G60" t="s" s="2">
-        <v>77</v>
-      </c>
       <c r="H60" t="s" s="2">
         <v>20</v>
       </c>
@@ -8580,13 +8577,13 @@
         <v>20</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="L60" t="s" s="2">
+        <v>446</v>
+      </c>
+      <c r="M60" t="s" s="2">
         <v>447</v>
-      </c>
-      <c r="M60" t="s" s="2">
-        <v>448</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" s="2"/>
@@ -8637,19 +8634,19 @@
         <v>20</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="AG60" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH60" t="s" s="2">
         <v>76</v>
       </c>
-      <c r="AH60" t="s" s="2">
-        <v>77</v>
-      </c>
       <c r="AI60" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AK60" t="s" s="2">
         <v>20</v>
@@ -8666,10 +8663,10 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -8677,10 +8674,10 @@
       </c>
       <c r="E61" s="2"/>
       <c r="F61" t="s" s="2">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H61" t="s" s="2">
         <v>20</v>
@@ -8692,16 +8689,16 @@
         <v>20</v>
       </c>
       <c r="K61" t="s" s="2">
+        <v>449</v>
+      </c>
+      <c r="L61" t="s" s="2">
         <v>450</v>
       </c>
-      <c r="L61" t="s" s="2">
+      <c r="M61" t="s" s="2">
         <v>451</v>
       </c>
-      <c r="M61" t="s" s="2">
+      <c r="N61" t="s" s="2">
         <v>452</v>
-      </c>
-      <c r="N61" t="s" s="2">
-        <v>453</v>
       </c>
       <c r="O61" s="2"/>
       <c r="P61" t="s" s="2">
@@ -8751,25 +8748,25 @@
         <v>20</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="AG61" t="s" s="2">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AI61" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AK61" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AM61" t="s" s="2">
         <v>20</v>
@@ -8780,10 +8777,10 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -8791,11 +8788,11 @@
       </c>
       <c r="E62" s="2"/>
       <c r="F62" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G62" t="s" s="2">
         <v>76</v>
       </c>
-      <c r="G62" t="s" s="2">
-        <v>77</v>
-      </c>
       <c r="H62" t="s" s="2">
         <v>20</v>
       </c>
@@ -8806,16 +8803,16 @@
         <v>20</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="L62" t="s" s="2">
+        <v>454</v>
+      </c>
+      <c r="M62" t="s" s="2">
         <v>455</v>
       </c>
-      <c r="M62" t="s" s="2">
+      <c r="N62" t="s" s="2">
         <v>456</v>
-      </c>
-      <c r="N62" t="s" s="2">
-        <v>457</v>
       </c>
       <c r="O62" s="2"/>
       <c r="P62" t="s" s="2">
@@ -8865,25 +8862,25 @@
         <v>20</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="AG62" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH62" t="s" s="2">
         <v>76</v>
       </c>
-      <c r="AH62" t="s" s="2">
-        <v>77</v>
-      </c>
       <c r="AI62" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AK62" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AM62" t="s" s="2">
         <v>20</v>
@@ -8894,10 +8891,10 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -8905,10 +8902,10 @@
       </c>
       <c r="E63" s="2"/>
       <c r="F63" t="s" s="2">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G63" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H63" t="s" s="2">
         <v>20</v>
@@ -8920,13 +8917,13 @@
         <v>20</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="L63" t="s" s="2">
+        <v>383</v>
+      </c>
+      <c r="M63" t="s" s="2">
         <v>384</v>
-      </c>
-      <c r="M63" t="s" s="2">
-        <v>385</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" s="2"/>
@@ -8977,25 +8974,25 @@
         <v>20</v>
       </c>
       <c r="AF63" t="s" s="2">
+        <v>385</v>
+      </c>
+      <c r="AG63" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH63" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AI63" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ63" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AK63" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AL63" t="s" s="2">
         <v>386</v>
-      </c>
-      <c r="AG63" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH63" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AI63" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AJ63" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AK63" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AL63" t="s" s="2">
-        <v>387</v>
       </c>
       <c r="AM63" t="s" s="2">
         <v>20</v>
@@ -9006,22 +9003,22 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E64" s="2"/>
       <c r="F64" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G64" t="s" s="2">
         <v>76</v>
       </c>
-      <c r="G64" t="s" s="2">
-        <v>77</v>
-      </c>
       <c r="H64" t="s" s="2">
         <v>20</v>
       </c>
@@ -9032,16 +9029,16 @@
         <v>20</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="L64" t="s" s="2">
+        <v>388</v>
+      </c>
+      <c r="M64" t="s" s="2">
         <v>389</v>
       </c>
-      <c r="M64" t="s" s="2">
-        <v>390</v>
-      </c>
       <c r="N64" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="O64" s="2"/>
       <c r="P64" t="s" s="2">
@@ -9091,25 +9088,25 @@
         <v>20</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="AG64" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH64" t="s" s="2">
         <v>76</v>
       </c>
-      <c r="AH64" t="s" s="2">
-        <v>77</v>
-      </c>
       <c r="AI64" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AK64" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="AM64" t="s" s="2">
         <v>20</v>
@@ -9120,45 +9117,45 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="E65" s="2"/>
       <c r="F65" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G65" t="s" s="2">
         <v>76</v>
       </c>
-      <c r="G65" t="s" s="2">
-        <v>77</v>
-      </c>
       <c r="H65" t="s" s="2">
         <v>20</v>
       </c>
       <c r="I65" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="L65" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="M65" t="s" s="2">
         <v>394</v>
       </c>
-      <c r="M65" t="s" s="2">
-        <v>395</v>
-      </c>
       <c r="N65" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="O65" t="s" s="2">
         <v>144</v>
-      </c>
-      <c r="O65" t="s" s="2">
-        <v>145</v>
       </c>
       <c r="P65" t="s" s="2">
         <v>20</v>
@@ -9207,25 +9204,25 @@
         <v>20</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="AG65" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH65" t="s" s="2">
         <v>76</v>
       </c>
-      <c r="AH65" t="s" s="2">
-        <v>77</v>
-      </c>
       <c r="AI65" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AK65" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AM65" t="s" s="2">
         <v>20</v>
@@ -9236,10 +9233,10 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -9247,10 +9244,10 @@
       </c>
       <c r="E66" s="2"/>
       <c r="F66" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G66" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H66" t="s" s="2">
         <v>20</v>
@@ -9262,16 +9259,16 @@
         <v>20</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="L66" t="s" s="2">
+        <v>461</v>
+      </c>
+      <c r="M66" t="s" s="2">
         <v>462</v>
       </c>
-      <c r="M66" t="s" s="2">
+      <c r="N66" t="s" s="2">
         <v>463</v>
-      </c>
-      <c r="N66" t="s" s="2">
-        <v>464</v>
       </c>
       <c r="O66" s="2"/>
       <c r="P66" t="s" s="2">
@@ -9321,25 +9318,25 @@
         <v>20</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="AG66" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH66" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AI66" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AK66" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AM66" t="s" s="2">
         <v>20</v>
@@ -9350,10 +9347,10 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -9361,10 +9358,10 @@
       </c>
       <c r="E67" s="2"/>
       <c r="F67" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G67" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H67" t="s" s="2">
         <v>20</v>
@@ -9376,16 +9373,16 @@
         <v>20</v>
       </c>
       <c r="K67" t="s" s="2">
+        <v>465</v>
+      </c>
+      <c r="L67" t="s" s="2">
         <v>466</v>
       </c>
-      <c r="L67" t="s" s="2">
+      <c r="M67" t="s" s="2">
         <v>467</v>
       </c>
-      <c r="M67" t="s" s="2">
+      <c r="N67" t="s" s="2">
         <v>468</v>
-      </c>
-      <c r="N67" t="s" s="2">
-        <v>469</v>
       </c>
       <c r="O67" s="2"/>
       <c r="P67" t="s" s="2">
@@ -9435,25 +9432,25 @@
         <v>20</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="AG67" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH67" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AI67" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AK67" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AM67" t="s" s="2">
         <v>20</v>

--- a/docs/src/.vuepress/public/fhir/ImplementationGuide/dev.dsf/StructureDefinition-activity-definition.xlsx
+++ b/docs/src/.vuepress/public/fhir/ImplementationGuide/dev.dsf/StructureDefinition-activity-definition.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2447" uniqueCount="469">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2446" uniqueCount="468">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-27</t>
+    <t>2025-11-26</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -79,9 +79,6 @@
   </si>
   <si>
     <t>Description</t>
-  </si>
-  <si>
-    <t>A DSF Process with it's messages and corresponding Authorization Rules.</t>
   </si>
   <si>
     <t>Purpose</t>
@@ -1704,41 +1701,39 @@
       <c r="A12" t="s" s="2">
         <v>21</v>
       </c>
-      <c r="B12" t="s" s="2">
-        <v>22</v>
-      </c>
+      <c r="B12" s="2"/>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B14" s="2"/>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="B15" t="s" s="2">
         <v>25</v>
-      </c>
-      <c r="B15" t="s" s="2">
-        <v>26</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
+        <v>26</v>
+      </c>
+      <c r="B16" t="s" s="2">
         <v>27</v>
-      </c>
-      <c r="B16" t="s" s="2">
-        <v>28</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B17" t="s" s="2">
         <v>7</v>
@@ -1746,15 +1741,15 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
+        <v>29</v>
+      </c>
+      <c r="B18" t="s" s="2">
         <v>30</v>
-      </c>
-      <c r="B18" t="s" s="2">
-        <v>31</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B19" t="s" s="2">
         <v>12</v>
@@ -1762,10 +1757,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
+        <v>32</v>
+      </c>
+      <c r="B20" t="s" s="2">
         <v>33</v>
-      </c>
-      <c r="B20" t="s" s="2">
-        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -1827,124 +1822,124 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
+        <v>34</v>
+      </c>
+      <c r="B1" t="s" s="1">
         <v>35</v>
       </c>
-      <c r="B1" t="s" s="1">
+      <c r="C1" t="s" s="1">
         <v>36</v>
       </c>
-      <c r="C1" t="s" s="1">
+      <c r="D1" t="s" s="1">
         <v>37</v>
       </c>
-      <c r="D1" t="s" s="1">
+      <c r="E1" t="s" s="1">
         <v>38</v>
       </c>
-      <c r="E1" t="s" s="1">
+      <c r="F1" t="s" s="1">
         <v>39</v>
       </c>
-      <c r="F1" t="s" s="1">
+      <c r="G1" t="s" s="1">
         <v>40</v>
       </c>
-      <c r="G1" t="s" s="1">
+      <c r="H1" t="s" s="1">
         <v>41</v>
       </c>
-      <c r="H1" t="s" s="1">
+      <c r="I1" t="s" s="1">
         <v>42</v>
       </c>
-      <c r="I1" t="s" s="1">
+      <c r="J1" t="s" s="1">
         <v>43</v>
       </c>
-      <c r="J1" t="s" s="1">
+      <c r="K1" t="s" s="1">
         <v>44</v>
       </c>
-      <c r="K1" t="s" s="1">
+      <c r="L1" t="s" s="1">
         <v>45</v>
       </c>
-      <c r="L1" t="s" s="1">
+      <c r="M1" t="s" s="1">
         <v>46</v>
       </c>
-      <c r="M1" t="s" s="1">
+      <c r="N1" t="s" s="1">
         <v>47</v>
       </c>
-      <c r="N1" t="s" s="1">
+      <c r="O1" t="s" s="1">
         <v>48</v>
       </c>
-      <c r="O1" t="s" s="1">
+      <c r="P1" t="s" s="1">
         <v>49</v>
       </c>
-      <c r="P1" t="s" s="1">
+      <c r="Q1" t="s" s="1">
         <v>50</v>
       </c>
-      <c r="Q1" t="s" s="1">
+      <c r="R1" t="s" s="1">
         <v>51</v>
       </c>
-      <c r="R1" t="s" s="1">
+      <c r="S1" t="s" s="1">
         <v>52</v>
       </c>
-      <c r="S1" t="s" s="1">
+      <c r="T1" t="s" s="1">
         <v>53</v>
       </c>
-      <c r="T1" t="s" s="1">
+      <c r="U1" t="s" s="1">
         <v>54</v>
       </c>
-      <c r="U1" t="s" s="1">
+      <c r="V1" t="s" s="1">
         <v>55</v>
       </c>
-      <c r="V1" t="s" s="1">
+      <c r="W1" t="s" s="1">
         <v>56</v>
       </c>
-      <c r="W1" t="s" s="1">
+      <c r="X1" t="s" s="1">
         <v>57</v>
       </c>
-      <c r="X1" t="s" s="1">
+      <c r="Y1" t="s" s="1">
         <v>58</v>
       </c>
-      <c r="Y1" t="s" s="1">
+      <c r="Z1" t="s" s="1">
         <v>59</v>
       </c>
-      <c r="Z1" t="s" s="1">
+      <c r="AA1" t="s" s="1">
         <v>60</v>
       </c>
-      <c r="AA1" t="s" s="1">
+      <c r="AB1" t="s" s="1">
         <v>61</v>
       </c>
-      <c r="AB1" t="s" s="1">
+      <c r="AC1" t="s" s="1">
         <v>62</v>
       </c>
-      <c r="AC1" t="s" s="1">
+      <c r="AD1" t="s" s="1">
         <v>63</v>
       </c>
-      <c r="AD1" t="s" s="1">
+      <c r="AE1" t="s" s="1">
         <v>64</v>
       </c>
-      <c r="AE1" t="s" s="1">
+      <c r="AF1" t="s" s="1">
         <v>65</v>
       </c>
-      <c r="AF1" t="s" s="1">
+      <c r="AG1" t="s" s="1">
         <v>66</v>
       </c>
-      <c r="AG1" t="s" s="1">
+      <c r="AH1" t="s" s="1">
         <v>67</v>
       </c>
-      <c r="AH1" t="s" s="1">
+      <c r="AI1" t="s" s="1">
         <v>68</v>
       </c>
-      <c r="AI1" t="s" s="1">
+      <c r="AJ1" t="s" s="1">
         <v>69</v>
       </c>
-      <c r="AJ1" t="s" s="1">
+      <c r="AK1" t="s" s="1">
         <v>70</v>
       </c>
-      <c r="AK1" t="s" s="1">
+      <c r="AL1" t="s" s="1">
         <v>71</v>
       </c>
-      <c r="AL1" t="s" s="1">
+      <c r="AM1" t="s" s="1">
         <v>72</v>
       </c>
-      <c r="AM1" t="s" s="1">
+      <c r="AN1" t="s" s="1">
         <v>73</v>
-      </c>
-      <c r="AN1" t="s" s="1">
-        <v>74</v>
       </c>
     </row>
     <row r="2">
@@ -1960,28 +1955,28 @@
       </c>
       <c r="E2" s="2"/>
       <c r="F2" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="G2" t="s" s="2">
         <v>75</v>
       </c>
-      <c r="G2" t="s" s="2">
+      <c r="H2" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I2" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J2" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="K2" t="s" s="2">
         <v>76</v>
       </c>
-      <c r="H2" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="I2" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="J2" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="K2" t="s" s="2">
+      <c r="L2" t="s" s="2">
         <v>77</v>
       </c>
-      <c r="L2" t="s" s="2">
+      <c r="M2" t="s" s="2">
         <v>78</v>
-      </c>
-      <c r="M2" t="s" s="2">
-        <v>79</v>
       </c>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
@@ -2035,22 +2030,22 @@
         <v>7</v>
       </c>
       <c r="AG2" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AH2" t="s" s="2">
         <v>75</v>
       </c>
-      <c r="AH2" t="s" s="2">
-        <v>76</v>
-      </c>
       <c r="AI2" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ2" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK2" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AL2" t="s" s="2">
         <v>80</v>
-      </c>
-      <c r="AK2" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="AL2" t="s" s="2">
-        <v>81</v>
       </c>
       <c r="AM2" t="s" s="2">
         <v>20</v>
@@ -2061,10 +2056,10 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
@@ -2072,31 +2067,31 @@
       </c>
       <c r="E3" s="2"/>
       <c r="F3" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G3" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H3" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I3" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J3" t="s" s="2">
         <v>83</v>
       </c>
-      <c r="H3" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="I3" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="J3" t="s" s="2">
+      <c r="K3" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="K3" t="s" s="2">
+      <c r="L3" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="L3" t="s" s="2">
+      <c r="M3" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="M3" t="s" s="2">
+      <c r="N3" t="s" s="2">
         <v>87</v>
-      </c>
-      <c r="N3" t="s" s="2">
-        <v>88</v>
       </c>
       <c r="O3" s="2"/>
       <c r="P3" t="s" s="2">
@@ -2146,13 +2141,13 @@
         <v>20</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AI3" t="s" s="2">
         <v>20</v>
@@ -2175,10 +2170,10 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
@@ -2186,28 +2181,28 @@
       </c>
       <c r="E4" s="2"/>
       <c r="F4" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G4" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H4" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I4" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J4" t="s" s="2">
         <v>83</v>
       </c>
-      <c r="H4" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="I4" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="J4" t="s" s="2">
-        <v>84</v>
-      </c>
       <c r="K4" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="L4" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="L4" t="s" s="2">
+      <c r="M4" t="s" s="2">
         <v>92</v>
-      </c>
-      <c r="M4" t="s" s="2">
-        <v>93</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
@@ -2258,19 +2253,19 @@
         <v>20</v>
       </c>
       <c r="AF4" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AG4" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AH4" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AI4" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ4" t="s" s="2">
         <v>94</v>
-      </c>
-      <c r="AG4" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH4" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AI4" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AJ4" t="s" s="2">
-        <v>95</v>
       </c>
       <c r="AK4" t="s" s="2">
         <v>20</v>
@@ -2287,10 +2282,10 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -2298,31 +2293,31 @@
       </c>
       <c r="E5" s="2"/>
       <c r="F5" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G5" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H5" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I5" t="s" s="2">
         <v>83</v>
       </c>
-      <c r="H5" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="I5" t="s" s="2">
-        <v>84</v>
-      </c>
       <c r="J5" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K5" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="L5" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="L5" t="s" s="2">
+      <c r="M5" t="s" s="2">
         <v>98</v>
       </c>
-      <c r="M5" t="s" s="2">
+      <c r="N5" t="s" s="2">
         <v>99</v>
-      </c>
-      <c r="N5" t="s" s="2">
-        <v>100</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
@@ -2372,19 +2367,19 @@
         <v>20</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AI5" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AK5" t="s" s="2">
         <v>20</v>
@@ -2401,10 +2396,10 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
@@ -2412,10 +2407,10 @@
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H6" t="s" s="2">
         <v>20</v>
@@ -2427,16 +2422,16 @@
         <v>20</v>
       </c>
       <c r="K6" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="L6" t="s" s="2">
         <v>103</v>
       </c>
-      <c r="L6" t="s" s="2">
+      <c r="M6" t="s" s="2">
         <v>104</v>
       </c>
-      <c r="M6" t="s" s="2">
+      <c r="N6" t="s" s="2">
         <v>105</v>
-      </c>
-      <c r="N6" t="s" s="2">
-        <v>106</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
@@ -2462,43 +2457,43 @@
         <v>20</v>
       </c>
       <c r="X6" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="Y6" t="s" s="2">
         <v>107</v>
       </c>
-      <c r="Y6" t="s" s="2">
+      <c r="Z6" t="s" s="2">
         <v>108</v>
       </c>
-      <c r="Z6" t="s" s="2">
+      <c r="AA6" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB6" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC6" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD6" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE6" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF6" t="s" s="2">
         <v>109</v>
       </c>
-      <c r="AA6" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AB6" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AC6" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AD6" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AE6" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AF6" t="s" s="2">
-        <v>110</v>
-      </c>
       <c r="AG6" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AI6" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AK6" t="s" s="2">
         <v>20</v>
@@ -2515,21 +2510,21 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H7" t="s" s="2">
         <v>20</v>
@@ -2541,16 +2536,16 @@
         <v>20</v>
       </c>
       <c r="K7" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="L7" t="s" s="2">
         <v>113</v>
       </c>
-      <c r="L7" t="s" s="2">
+      <c r="M7" t="s" s="2">
         <v>114</v>
       </c>
-      <c r="M7" t="s" s="2">
+      <c r="N7" t="s" s="2">
         <v>115</v>
-      </c>
-      <c r="N7" t="s" s="2">
-        <v>116</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
@@ -2600,25 +2595,25 @@
         <v>20</v>
       </c>
       <c r="AF7" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="AG7" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AH7" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AI7" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ7" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AK7" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AL7" t="s" s="2">
         <v>117</v>
-      </c>
-      <c r="AG7" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH7" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AI7" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AJ7" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="AK7" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AL7" t="s" s="2">
-        <v>118</v>
       </c>
       <c r="AM7" t="s" s="2">
         <v>20</v>
@@ -2629,22 +2624,22 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="G8" t="s" s="2">
         <v>75</v>
       </c>
-      <c r="G8" t="s" s="2">
-        <v>76</v>
-      </c>
       <c r="H8" t="s" s="2">
         <v>20</v>
       </c>
@@ -2655,16 +2650,16 @@
         <v>20</v>
       </c>
       <c r="K8" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="L8" t="s" s="2">
         <v>121</v>
       </c>
-      <c r="L8" t="s" s="2">
+      <c r="M8" t="s" s="2">
         <v>122</v>
       </c>
-      <c r="M8" t="s" s="2">
+      <c r="N8" t="s" s="2">
         <v>123</v>
-      </c>
-      <c r="N8" t="s" s="2">
-        <v>124</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
@@ -2714,25 +2709,25 @@
         <v>20</v>
       </c>
       <c r="AF8" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="AG8" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AH8" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI8" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ8" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AK8" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AL8" t="s" s="2">
         <v>125</v>
-      </c>
-      <c r="AG8" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH8" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AI8" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AJ8" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AK8" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AL8" t="s" s="2">
-        <v>126</v>
       </c>
       <c r="AM8" t="s" s="2">
         <v>20</v>
@@ -2743,10 +2738,10 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
@@ -2754,10 +2749,10 @@
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H9" t="s" s="2">
         <v>20</v>
@@ -2769,13 +2764,13 @@
         <v>20</v>
       </c>
       <c r="K9" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="L9" t="s" s="2">
         <v>128</v>
       </c>
-      <c r="L9" t="s" s="2">
+      <c r="M9" t="s" s="2">
         <v>129</v>
-      </c>
-      <c r="M9" t="s" s="2">
-        <v>130</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
@@ -2814,29 +2809,29 @@
         <v>20</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AC9" s="2"/>
       <c r="AD9" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AE9" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="AF9" t="s" s="2">
         <v>132</v>
       </c>
-      <c r="AF9" t="s" s="2">
+      <c r="AG9" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AH9" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI9" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ9" t="s" s="2">
         <v>133</v>
-      </c>
-      <c r="AG9" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH9" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AI9" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AJ9" t="s" s="2">
-        <v>134</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>20</v>
@@ -2853,23 +2848,23 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="B10" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="C10" t="s" s="2">
         <v>135</v>
-      </c>
-      <c r="B10" t="s" s="2">
-        <v>127</v>
-      </c>
-      <c r="C10" t="s" s="2">
-        <v>136</v>
       </c>
       <c r="D10" t="s" s="2">
         <v>20</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H10" t="s" s="2">
         <v>20</v>
@@ -2881,13 +2876,13 @@
         <v>20</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="L10" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="M10" t="s" s="2">
         <v>129</v>
-      </c>
-      <c r="M10" t="s" s="2">
-        <v>130</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
@@ -2938,19 +2933,19 @@
         <v>20</v>
       </c>
       <c r="AF10" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="AG10" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AH10" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI10" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="AJ10" t="s" s="2">
         <v>133</v>
-      </c>
-      <c r="AG10" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH10" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AI10" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="AJ10" t="s" s="2">
-        <v>134</v>
       </c>
       <c r="AK10" t="s" s="2">
         <v>20</v>
@@ -2967,45 +2962,45 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="G11" t="s" s="2">
         <v>75</v>
       </c>
-      <c r="G11" t="s" s="2">
-        <v>76</v>
-      </c>
       <c r="H11" t="s" s="2">
         <v>20</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J11" t="s" s="2">
         <v>20</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="L11" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="M11" t="s" s="2">
         <v>141</v>
       </c>
-      <c r="M11" t="s" s="2">
+      <c r="N11" t="s" s="2">
         <v>142</v>
       </c>
-      <c r="N11" t="s" s="2">
+      <c r="O11" t="s" s="2">
         <v>143</v>
-      </c>
-      <c r="O11" t="s" s="2">
-        <v>144</v>
       </c>
       <c r="P11" t="s" s="2">
         <v>20</v>
@@ -3054,25 +3049,25 @@
         <v>20</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AG11" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AH11" t="s" s="2">
         <v>75</v>
       </c>
-      <c r="AH11" t="s" s="2">
-        <v>76</v>
-      </c>
       <c r="AI11" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AK11" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="AM11" t="s" s="2">
         <v>20</v>
@@ -3083,10 +3078,10 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -3094,34 +3089,34 @@
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G12" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H12" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I12" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J12" t="s" s="2">
         <v>83</v>
       </c>
-      <c r="G12" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="H12" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="I12" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="J12" t="s" s="2">
-        <v>84</v>
-      </c>
       <c r="K12" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="L12" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="M12" t="s" s="2">
         <v>147</v>
       </c>
-      <c r="M12" t="s" s="2">
+      <c r="N12" t="s" s="2">
         <v>148</v>
       </c>
-      <c r="N12" t="s" s="2">
+      <c r="O12" t="s" s="2">
         <v>149</v>
-      </c>
-      <c r="O12" t="s" s="2">
-        <v>150</v>
       </c>
       <c r="P12" t="s" s="2">
         <v>20</v>
@@ -3170,28 +3165,28 @@
         <v>20</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AI12" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AK12" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="AL12" t="s" s="2">
         <v>151</v>
       </c>
-      <c r="AL12" t="s" s="2">
+      <c r="AM12" t="s" s="2">
         <v>152</v>
-      </c>
-      <c r="AM12" t="s" s="2">
-        <v>153</v>
       </c>
       <c r="AN12" t="s" s="2">
         <v>20</v>
@@ -3199,10 +3194,10 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -3210,11 +3205,11 @@
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="G13" t="s" s="2">
         <v>75</v>
       </c>
-      <c r="G13" t="s" s="2">
-        <v>76</v>
-      </c>
       <c r="H13" t="s" s="2">
         <v>20</v>
       </c>
@@ -3222,22 +3217,22 @@
         <v>20</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K13" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="L13" t="s" s="2">
         <v>155</v>
       </c>
-      <c r="L13" t="s" s="2">
+      <c r="M13" t="s" s="2">
         <v>156</v>
       </c>
-      <c r="M13" t="s" s="2">
+      <c r="N13" t="s" s="2">
         <v>157</v>
       </c>
-      <c r="N13" t="s" s="2">
+      <c r="O13" t="s" s="2">
         <v>158</v>
-      </c>
-      <c r="O13" t="s" s="2">
-        <v>159</v>
       </c>
       <c r="P13" t="s" s="2">
         <v>20</v>
@@ -3286,39 +3281,39 @@
         <v>20</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="AG13" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AH13" t="s" s="2">
         <v>75</v>
       </c>
-      <c r="AH13" t="s" s="2">
-        <v>76</v>
-      </c>
       <c r="AI13" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AK13" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="AL13" t="s" s="2">
         <v>160</v>
       </c>
-      <c r="AL13" t="s" s="2">
+      <c r="AM13" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="AN13" t="s" s="2">
         <v>161</v>
-      </c>
-      <c r="AM13" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="AN13" t="s" s="2">
-        <v>162</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -3326,31 +3321,31 @@
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G14" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H14" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I14" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J14" t="s" s="2">
         <v>83</v>
       </c>
-      <c r="G14" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="H14" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="I14" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="J14" t="s" s="2">
-        <v>84</v>
-      </c>
       <c r="K14" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="L14" t="s" s="2">
         <v>164</v>
       </c>
-      <c r="L14" t="s" s="2">
+      <c r="M14" t="s" s="2">
         <v>165</v>
       </c>
-      <c r="M14" t="s" s="2">
+      <c r="N14" t="s" s="2">
         <v>166</v>
-      </c>
-      <c r="N14" t="s" s="2">
-        <v>167</v>
       </c>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
@@ -3400,28 +3395,28 @@
         <v>20</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AI14" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AK14" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="AL14" t="s" s="2">
         <v>168</v>
       </c>
-      <c r="AL14" t="s" s="2">
+      <c r="AM14" t="s" s="2">
         <v>169</v>
-      </c>
-      <c r="AM14" t="s" s="2">
-        <v>170</v>
       </c>
       <c r="AN14" t="s" s="2">
         <v>20</v>
@@ -3429,10 +3424,10 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -3440,34 +3435,34 @@
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G15" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H15" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I15" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J15" t="s" s="2">
         <v>83</v>
       </c>
-      <c r="H15" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="I15" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="J15" t="s" s="2">
-        <v>84</v>
-      </c>
       <c r="K15" t="s" s="2">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="L15" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="M15" t="s" s="2">
         <v>172</v>
       </c>
-      <c r="M15" t="s" s="2">
+      <c r="N15" t="s" s="2">
         <v>173</v>
       </c>
-      <c r="N15" t="s" s="2">
+      <c r="O15" t="s" s="2">
         <v>174</v>
-      </c>
-      <c r="O15" t="s" s="2">
-        <v>175</v>
       </c>
       <c r="P15" t="s" s="2">
         <v>20</v>
@@ -3516,25 +3511,25 @@
         <v>20</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AK15" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="AM15" t="s" s="2">
         <v>20</v>
@@ -3545,10 +3540,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -3556,31 +3551,31 @@
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G16" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H16" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I16" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J16" t="s" s="2">
         <v>83</v>
       </c>
-      <c r="H16" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="I16" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="J16" t="s" s="2">
-        <v>84</v>
-      </c>
       <c r="K16" t="s" s="2">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="L16" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="M16" t="s" s="2">
         <v>178</v>
       </c>
-      <c r="M16" t="s" s="2">
+      <c r="N16" t="s" s="2">
         <v>179</v>
-      </c>
-      <c r="N16" t="s" s="2">
-        <v>180</v>
       </c>
       <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
@@ -3630,25 +3625,25 @@
         <v>20</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AI16" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AK16" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="AL16" t="s" s="2">
         <v>181</v>
-      </c>
-      <c r="AL16" t="s" s="2">
-        <v>182</v>
       </c>
       <c r="AM16" t="s" s="2">
         <v>20</v>
@@ -3659,10 +3654,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3670,10 +3665,10 @@
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>20</v>
@@ -3685,13 +3680,13 @@
         <v>20</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="L17" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="M17" t="s" s="2">
         <v>184</v>
-      </c>
-      <c r="M17" t="s" s="2">
-        <v>185</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
@@ -3742,19 +3737,19 @@
         <v>20</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AI17" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AK17" t="s" s="2">
         <v>20</v>
@@ -3771,10 +3766,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3782,31 +3777,31 @@
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G18" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H18" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I18" t="s" s="2">
         <v>83</v>
       </c>
-      <c r="G18" t="s" s="2">
+      <c r="J18" t="s" s="2">
         <v>83</v>
       </c>
-      <c r="H18" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="I18" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="J18" t="s" s="2">
-        <v>84</v>
-      </c>
       <c r="K18" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="L18" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="M18" t="s" s="2">
         <v>187</v>
       </c>
-      <c r="M18" t="s" s="2">
+      <c r="N18" t="s" s="2">
         <v>188</v>
-      </c>
-      <c r="N18" t="s" s="2">
-        <v>189</v>
       </c>
       <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
@@ -3832,52 +3827,52 @@
         <v>20</v>
       </c>
       <c r="X18" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="Y18" t="s" s="2">
         <v>190</v>
       </c>
-      <c r="Y18" t="s" s="2">
+      <c r="Z18" t="s" s="2">
         <v>191</v>
       </c>
-      <c r="Z18" t="s" s="2">
+      <c r="AA18" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB18" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC18" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD18" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE18" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF18" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="AG18" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH18" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AI18" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ18" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AK18" t="s" s="2">
         <v>192</v>
       </c>
-      <c r="AA18" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AB18" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AC18" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AD18" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AE18" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AF18" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="AG18" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AH18" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AI18" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AJ18" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="AK18" t="s" s="2">
+      <c r="AL18" t="s" s="2">
         <v>193</v>
       </c>
-      <c r="AL18" t="s" s="2">
+      <c r="AM18" t="s" s="2">
         <v>194</v>
-      </c>
-      <c r="AM18" t="s" s="2">
-        <v>195</v>
       </c>
       <c r="AN18" t="s" s="2">
         <v>20</v>
@@ -3885,10 +3880,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3896,34 +3891,34 @@
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G19" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H19" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I19" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J19" t="s" s="2">
         <v>83</v>
       </c>
-      <c r="H19" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="I19" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="J19" t="s" s="2">
-        <v>84</v>
-      </c>
       <c r="K19" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="L19" t="s" s="2">
         <v>197</v>
       </c>
-      <c r="L19" t="s" s="2">
+      <c r="M19" t="s" s="2">
         <v>198</v>
       </c>
-      <c r="M19" t="s" s="2">
+      <c r="N19" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="O19" t="s" s="2">
         <v>199</v>
-      </c>
-      <c r="N19" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="O19" t="s" s="2">
-        <v>200</v>
       </c>
       <c r="P19" t="s" s="2">
         <v>20</v>
@@ -3972,28 +3967,28 @@
         <v>20</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AI19" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AK19" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="AL19" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="AM19" t="s" s="2">
         <v>201</v>
-      </c>
-      <c r="AL19" t="s" s="2">
-        <v>169</v>
-      </c>
-      <c r="AM19" t="s" s="2">
-        <v>202</v>
       </c>
       <c r="AN19" t="s" s="2">
         <v>20</v>
@@ -4001,10 +3996,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -4012,10 +4007,10 @@
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>20</v>
@@ -4027,13 +4022,13 @@
         <v>20</v>
       </c>
       <c r="K20" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="L20" t="s" s="2">
         <v>204</v>
       </c>
-      <c r="L20" t="s" s="2">
+      <c r="M20" t="s" s="2">
         <v>205</v>
-      </c>
-      <c r="M20" t="s" s="2">
-        <v>206</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -4041,67 +4036,67 @@
         <v>20</v>
       </c>
       <c r="Q20" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="R20" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="S20" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="T20" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="U20" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="V20" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="W20" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="X20" t="s" s="2">
         <v>207</v>
       </c>
-      <c r="R20" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="S20" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="T20" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="U20" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="V20" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="W20" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="X20" t="s" s="2">
+      <c r="Y20" t="s" s="2">
         <v>208</v>
       </c>
-      <c r="Y20" t="s" s="2">
+      <c r="Z20" t="s" s="2">
         <v>209</v>
       </c>
-      <c r="Z20" t="s" s="2">
+      <c r="AA20" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB20" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC20" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD20" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE20" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF20" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="AG20" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AH20" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AI20" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ20" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AK20" t="s" s="2">
         <v>210</v>
-      </c>
-      <c r="AA20" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AB20" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AC20" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AD20" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AE20" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AF20" t="s" s="2">
-        <v>203</v>
-      </c>
-      <c r="AG20" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH20" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AI20" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AJ20" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="AK20" t="s" s="2">
-        <v>211</v>
       </c>
       <c r="AL20" t="s" s="2">
         <v>20</v>
@@ -4115,42 +4110,42 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G21" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H21" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I21" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J21" t="s" s="2">
         <v>83</v>
       </c>
-      <c r="G21" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="H21" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="I21" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="J21" t="s" s="2">
-        <v>84</v>
-      </c>
       <c r="K21" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="L21" t="s" s="2">
         <v>214</v>
       </c>
-      <c r="L21" t="s" s="2">
+      <c r="M21" t="s" s="2">
         <v>215</v>
       </c>
-      <c r="M21" t="s" s="2">
+      <c r="N21" t="s" s="2">
         <v>216</v>
-      </c>
-      <c r="N21" t="s" s="2">
-        <v>217</v>
       </c>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
@@ -4200,28 +4195,28 @@
         <v>20</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AI21" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AK21" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="AL21" t="s" s="2">
         <v>218</v>
       </c>
-      <c r="AL21" t="s" s="2">
+      <c r="AM21" t="s" s="2">
         <v>219</v>
-      </c>
-      <c r="AM21" t="s" s="2">
-        <v>220</v>
       </c>
       <c r="AN21" t="s" s="2">
         <v>20</v>
@@ -4229,10 +4224,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4240,34 +4235,34 @@
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G22" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H22" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I22" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J22" t="s" s="2">
         <v>83</v>
       </c>
-      <c r="H22" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="I22" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="J22" t="s" s="2">
-        <v>84</v>
-      </c>
       <c r="K22" t="s" s="2">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="L22" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="M22" t="s" s="2">
         <v>222</v>
       </c>
-      <c r="M22" t="s" s="2">
+      <c r="N22" t="s" s="2">
         <v>223</v>
       </c>
-      <c r="N22" t="s" s="2">
+      <c r="O22" t="s" s="2">
         <v>224</v>
-      </c>
-      <c r="O22" t="s" s="2">
-        <v>225</v>
       </c>
       <c r="P22" t="s" s="2">
         <v>20</v>
@@ -4316,28 +4311,28 @@
         <v>20</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AI22" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AK22" t="s" s="2">
+        <v>225</v>
+      </c>
+      <c r="AL22" t="s" s="2">
         <v>226</v>
       </c>
-      <c r="AL22" t="s" s="2">
+      <c r="AM22" t="s" s="2">
         <v>227</v>
-      </c>
-      <c r="AM22" t="s" s="2">
-        <v>228</v>
       </c>
       <c r="AN22" t="s" s="2">
         <v>20</v>
@@ -4345,10 +4340,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4356,11 +4351,11 @@
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="G23" t="s" s="2">
         <v>75</v>
       </c>
-      <c r="G23" t="s" s="2">
-        <v>76</v>
-      </c>
       <c r="H23" t="s" s="2">
         <v>20</v>
       </c>
@@ -4368,19 +4363,19 @@
         <v>20</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K23" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="L23" t="s" s="2">
         <v>230</v>
       </c>
-      <c r="L23" t="s" s="2">
+      <c r="M23" t="s" s="2">
         <v>231</v>
       </c>
-      <c r="M23" t="s" s="2">
+      <c r="N23" t="s" s="2">
         <v>232</v>
-      </c>
-      <c r="N23" t="s" s="2">
-        <v>233</v>
       </c>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
@@ -4430,25 +4425,25 @@
         <v>20</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="AG23" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AH23" t="s" s="2">
         <v>75</v>
       </c>
-      <c r="AH23" t="s" s="2">
-        <v>76</v>
-      </c>
       <c r="AI23" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AK23" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="AL23" t="s" s="2">
         <v>234</v>
-      </c>
-      <c r="AL23" t="s" s="2">
-        <v>235</v>
       </c>
       <c r="AM23" t="s" s="2">
         <v>20</v>
@@ -4459,10 +4454,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4470,31 +4465,31 @@
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G24" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H24" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I24" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J24" t="s" s="2">
         <v>83</v>
       </c>
-      <c r="H24" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="I24" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="J24" t="s" s="2">
-        <v>84</v>
-      </c>
       <c r="K24" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="L24" t="s" s="2">
         <v>237</v>
       </c>
-      <c r="L24" t="s" s="2">
+      <c r="M24" t="s" s="2">
         <v>238</v>
       </c>
-      <c r="M24" t="s" s="2">
+      <c r="N24" t="s" s="2">
         <v>239</v>
-      </c>
-      <c r="N24" t="s" s="2">
-        <v>240</v>
       </c>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
@@ -4544,25 +4539,25 @@
         <v>20</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AK24" t="s" s="2">
+        <v>240</v>
+      </c>
+      <c r="AL24" t="s" s="2">
         <v>241</v>
-      </c>
-      <c r="AL24" t="s" s="2">
-        <v>242</v>
       </c>
       <c r="AM24" t="s" s="2">
         <v>20</v>
@@ -4573,10 +4568,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4584,11 +4579,11 @@
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="G25" t="s" s="2">
         <v>75</v>
       </c>
-      <c r="G25" t="s" s="2">
-        <v>76</v>
-      </c>
       <c r="H25" t="s" s="2">
         <v>20</v>
       </c>
@@ -4596,22 +4591,22 @@
         <v>20</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K25" t="s" s="2">
+        <v>243</v>
+      </c>
+      <c r="L25" t="s" s="2">
         <v>244</v>
       </c>
-      <c r="L25" t="s" s="2">
+      <c r="M25" t="s" s="2">
         <v>245</v>
       </c>
-      <c r="M25" t="s" s="2">
+      <c r="N25" t="s" s="2">
         <v>246</v>
       </c>
-      <c r="N25" t="s" s="2">
+      <c r="O25" t="s" s="2">
         <v>247</v>
-      </c>
-      <c r="O25" t="s" s="2">
-        <v>248</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>20</v>
@@ -4660,25 +4655,25 @@
         <v>20</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="AG25" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AH25" t="s" s="2">
         <v>75</v>
       </c>
-      <c r="AH25" t="s" s="2">
-        <v>76</v>
-      </c>
       <c r="AI25" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>20</v>
@@ -4689,10 +4684,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4700,11 +4695,11 @@
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="G26" t="s" s="2">
         <v>75</v>
       </c>
-      <c r="G26" t="s" s="2">
-        <v>76</v>
-      </c>
       <c r="H26" t="s" s="2">
         <v>20</v>
       </c>
@@ -4712,19 +4707,19 @@
         <v>20</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K26" t="s" s="2">
+        <v>250</v>
+      </c>
+      <c r="L26" t="s" s="2">
         <v>251</v>
       </c>
-      <c r="L26" t="s" s="2">
+      <c r="M26" t="s" s="2">
         <v>252</v>
       </c>
-      <c r="M26" t="s" s="2">
+      <c r="N26" t="s" s="2">
         <v>253</v>
-      </c>
-      <c r="N26" t="s" s="2">
-        <v>254</v>
       </c>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
@@ -4750,49 +4745,49 @@
         <v>20</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="Y26" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="Z26" t="s" s="2">
         <v>255</v>
       </c>
-      <c r="Z26" t="s" s="2">
+      <c r="AA26" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB26" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC26" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD26" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE26" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF26" t="s" s="2">
+        <v>249</v>
+      </c>
+      <c r="AG26" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AH26" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI26" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ26" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AK26" t="s" s="2">
         <v>256</v>
       </c>
-      <c r="AA26" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AB26" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AC26" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AD26" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AE26" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AF26" t="s" s="2">
-        <v>250</v>
-      </c>
-      <c r="AG26" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH26" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AI26" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AJ26" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="AK26" t="s" s="2">
-        <v>257</v>
-      </c>
       <c r="AL26" t="s" s="2">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>20</v>
@@ -4803,10 +4798,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4814,10 +4809,10 @@
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>20</v>
@@ -4829,16 +4824,16 @@
         <v>20</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="L27" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="M27" t="s" s="2">
         <v>259</v>
       </c>
-      <c r="M27" t="s" s="2">
+      <c r="N27" t="s" s="2">
         <v>260</v>
-      </c>
-      <c r="N27" t="s" s="2">
-        <v>261</v>
       </c>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
@@ -4888,39 +4883,39 @@
         <v>20</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AI27" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AK27" t="s" s="2">
+        <v>261</v>
+      </c>
+      <c r="AL27" t="s" s="2">
         <v>262</v>
       </c>
-      <c r="AL27" t="s" s="2">
+      <c r="AM27" t="s" s="2">
         <v>263</v>
       </c>
-      <c r="AM27" t="s" s="2">
-        <v>264</v>
-      </c>
       <c r="AN27" t="s" s="2">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4928,10 +4923,10 @@
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>20</v>
@@ -4943,13 +4938,13 @@
         <v>20</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="L28" t="s" s="2">
+        <v>265</v>
+      </c>
+      <c r="M28" t="s" s="2">
         <v>266</v>
-      </c>
-      <c r="M28" t="s" s="2">
-        <v>267</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
@@ -5000,25 +4995,25 @@
         <v>20</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AK28" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="AM28" t="s" s="2">
         <v>20</v>
@@ -5029,21 +5024,21 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>20</v>
@@ -5055,17 +5050,17 @@
         <v>20</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="L29" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="M29" t="s" s="2">
         <v>270</v>
-      </c>
-      <c r="M29" t="s" s="2">
-        <v>271</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="P29" t="s" s="2">
         <v>20</v>
@@ -5114,39 +5109,39 @@
         <v>20</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AI29" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="AM29" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5154,10 +5149,10 @@
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>20</v>
@@ -5169,16 +5164,16 @@
         <v>20</v>
       </c>
       <c r="K30" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="L30" t="s" s="2">
         <v>275</v>
       </c>
-      <c r="L30" t="s" s="2">
+      <c r="M30" t="s" s="2">
         <v>276</v>
       </c>
-      <c r="M30" t="s" s="2">
+      <c r="N30" t="s" s="2">
         <v>277</v>
-      </c>
-      <c r="N30" t="s" s="2">
-        <v>278</v>
       </c>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
@@ -5228,39 +5223,39 @@
         <v>20</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AK30" t="s" s="2">
+        <v>278</v>
+      </c>
+      <c r="AL30" t="s" s="2">
         <v>279</v>
       </c>
-      <c r="AL30" t="s" s="2">
-        <v>280</v>
-      </c>
       <c r="AM30" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5268,10 +5263,10 @@
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>20</v>
@@ -5283,19 +5278,19 @@
         <v>20</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="L31" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="M31" t="s" s="2">
         <v>282</v>
       </c>
-      <c r="M31" t="s" s="2">
+      <c r="N31" t="s" s="2">
         <v>283</v>
       </c>
-      <c r="N31" t="s" s="2">
+      <c r="O31" t="s" s="2">
         <v>284</v>
-      </c>
-      <c r="O31" t="s" s="2">
-        <v>285</v>
       </c>
       <c r="P31" t="s" s="2">
         <v>20</v>
@@ -5344,39 +5339,39 @@
         <v>20</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AK31" t="s" s="2">
+        <v>285</v>
+      </c>
+      <c r="AL31" t="s" s="2">
         <v>286</v>
       </c>
-      <c r="AL31" t="s" s="2">
-        <v>287</v>
-      </c>
       <c r="AM31" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5384,34 +5379,34 @@
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G32" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H32" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I32" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J32" t="s" s="2">
         <v>83</v>
       </c>
-      <c r="H32" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="I32" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="J32" t="s" s="2">
-        <v>84</v>
-      </c>
       <c r="K32" t="s" s="2">
+        <v>288</v>
+      </c>
+      <c r="L32" t="s" s="2">
         <v>289</v>
       </c>
-      <c r="L32" t="s" s="2">
+      <c r="M32" t="s" s="2">
         <v>290</v>
       </c>
-      <c r="M32" t="s" s="2">
+      <c r="N32" t="s" s="2">
         <v>291</v>
       </c>
-      <c r="N32" t="s" s="2">
+      <c r="O32" t="s" s="2">
         <v>292</v>
-      </c>
-      <c r="O32" t="s" s="2">
-        <v>293</v>
       </c>
       <c r="P32" t="s" s="2">
         <v>20</v>
@@ -5460,39 +5455,39 @@
         <v>20</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AI32" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5500,11 +5495,11 @@
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="G33" t="s" s="2">
         <v>75</v>
       </c>
-      <c r="G33" t="s" s="2">
-        <v>76</v>
-      </c>
       <c r="H33" t="s" s="2">
         <v>20</v>
       </c>
@@ -5515,17 +5510,17 @@
         <v>20</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="L33" t="s" s="2">
+        <v>295</v>
+      </c>
+      <c r="M33" t="s" s="2">
         <v>296</v>
-      </c>
-      <c r="M33" t="s" s="2">
-        <v>297</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="P33" t="s" s="2">
         <v>20</v>
@@ -5550,14 +5545,14 @@
         <v>20</v>
       </c>
       <c r="X33" t="s" s="2">
+        <v>298</v>
+      </c>
+      <c r="Y33" t="s" s="2">
         <v>299</v>
       </c>
-      <c r="Y33" t="s" s="2">
+      <c r="Z33" t="s" s="2">
         <v>300</v>
       </c>
-      <c r="Z33" t="s" s="2">
-        <v>301</v>
-      </c>
       <c r="AA33" t="s" s="2">
         <v>20</v>
       </c>
@@ -5574,25 +5569,25 @@
         <v>20</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="AG33" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AH33" t="s" s="2">
         <v>75</v>
       </c>
-      <c r="AH33" t="s" s="2">
-        <v>76</v>
-      </c>
       <c r="AI33" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>20</v>
@@ -5603,10 +5598,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5614,11 +5609,11 @@
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="G34" t="s" s="2">
         <v>75</v>
       </c>
-      <c r="G34" t="s" s="2">
-        <v>76</v>
-      </c>
       <c r="H34" t="s" s="2">
         <v>20</v>
       </c>
@@ -5629,13 +5624,13 @@
         <v>20</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="L34" t="s" s="2">
+        <v>302</v>
+      </c>
+      <c r="M34" t="s" s="2">
         <v>303</v>
-      </c>
-      <c r="M34" t="s" s="2">
-        <v>304</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
@@ -5686,25 +5681,25 @@
         <v>20</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="AG34" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AH34" t="s" s="2">
         <v>75</v>
       </c>
-      <c r="AH34" t="s" s="2">
-        <v>76</v>
-      </c>
       <c r="AI34" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>20</v>
@@ -5715,10 +5710,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5726,11 +5721,11 @@
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="G35" t="s" s="2">
         <v>75</v>
       </c>
-      <c r="G35" t="s" s="2">
-        <v>76</v>
-      </c>
       <c r="H35" t="s" s="2">
         <v>20</v>
       </c>
@@ -5741,13 +5736,13 @@
         <v>20</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="L35" t="s" s="2">
+        <v>306</v>
+      </c>
+      <c r="M35" t="s" s="2">
         <v>307</v>
-      </c>
-      <c r="M35" t="s" s="2">
-        <v>308</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
@@ -5798,19 +5793,19 @@
         <v>20</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="AG35" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AH35" t="s" s="2">
         <v>75</v>
       </c>
-      <c r="AH35" t="s" s="2">
-        <v>76</v>
-      </c>
       <c r="AI35" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>20</v>
@@ -5827,10 +5822,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5838,11 +5833,11 @@
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="G36" t="s" s="2">
         <v>75</v>
       </c>
-      <c r="G36" t="s" s="2">
-        <v>76</v>
-      </c>
       <c r="H36" t="s" s="2">
         <v>20</v>
       </c>
@@ -5853,13 +5848,13 @@
         <v>20</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="L36" t="s" s="2">
+        <v>309</v>
+      </c>
+      <c r="M36" t="s" s="2">
         <v>310</v>
-      </c>
-      <c r="M36" t="s" s="2">
-        <v>311</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
@@ -5910,25 +5905,25 @@
         <v>20</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="AG36" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AH36" t="s" s="2">
         <v>75</v>
       </c>
-      <c r="AH36" t="s" s="2">
-        <v>76</v>
-      </c>
       <c r="AI36" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>20</v>
@@ -5939,10 +5934,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -5950,11 +5945,11 @@
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="G37" t="s" s="2">
         <v>75</v>
       </c>
-      <c r="G37" t="s" s="2">
-        <v>76</v>
-      </c>
       <c r="H37" t="s" s="2">
         <v>20</v>
       </c>
@@ -5965,13 +5960,13 @@
         <v>20</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="L37" t="s" s="2">
+        <v>313</v>
+      </c>
+      <c r="M37" t="s" s="2">
         <v>314</v>
-      </c>
-      <c r="M37" t="s" s="2">
-        <v>315</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
@@ -6022,25 +6017,25 @@
         <v>20</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="AG37" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AH37" t="s" s="2">
         <v>75</v>
       </c>
-      <c r="AH37" t="s" s="2">
-        <v>76</v>
-      </c>
       <c r="AI37" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>20</v>
@@ -6051,10 +6046,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6062,11 +6057,11 @@
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="G38" t="s" s="2">
         <v>75</v>
       </c>
-      <c r="G38" t="s" s="2">
-        <v>76</v>
-      </c>
       <c r="H38" t="s" s="2">
         <v>20</v>
       </c>
@@ -6077,19 +6072,19 @@
         <v>20</v>
       </c>
       <c r="K38" t="s" s="2">
+        <v>316</v>
+      </c>
+      <c r="L38" t="s" s="2">
         <v>317</v>
       </c>
-      <c r="L38" t="s" s="2">
+      <c r="M38" t="s" s="2">
         <v>318</v>
       </c>
-      <c r="M38" t="s" s="2">
+      <c r="N38" t="s" s="2">
         <v>319</v>
       </c>
-      <c r="N38" t="s" s="2">
+      <c r="O38" t="s" s="2">
         <v>320</v>
-      </c>
-      <c r="O38" t="s" s="2">
-        <v>321</v>
       </c>
       <c r="P38" t="s" s="2">
         <v>20</v>
@@ -6138,25 +6133,25 @@
         <v>20</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="AG38" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AH38" t="s" s="2">
         <v>75</v>
       </c>
-      <c r="AH38" t="s" s="2">
-        <v>76</v>
-      </c>
       <c r="AI38" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>20</v>
@@ -6167,10 +6162,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6178,11 +6173,11 @@
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="G39" t="s" s="2">
         <v>75</v>
       </c>
-      <c r="G39" t="s" s="2">
-        <v>76</v>
-      </c>
       <c r="H39" t="s" s="2">
         <v>20</v>
       </c>
@@ -6193,13 +6188,13 @@
         <v>20</v>
       </c>
       <c r="K39" t="s" s="2">
+        <v>323</v>
+      </c>
+      <c r="L39" t="s" s="2">
         <v>324</v>
       </c>
-      <c r="L39" t="s" s="2">
+      <c r="M39" t="s" s="2">
         <v>325</v>
-      </c>
-      <c r="M39" t="s" s="2">
-        <v>326</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
@@ -6250,25 +6245,25 @@
         <v>20</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="AG39" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AH39" t="s" s="2">
         <v>75</v>
       </c>
-      <c r="AH39" t="s" s="2">
-        <v>76</v>
-      </c>
       <c r="AI39" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>20</v>
@@ -6279,10 +6274,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6290,31 +6285,31 @@
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G40" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H40" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I40" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J40" t="s" s="2">
         <v>83</v>
       </c>
-      <c r="G40" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="H40" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="I40" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="J40" t="s" s="2">
-        <v>84</v>
-      </c>
       <c r="K40" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="L40" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="M40" t="s" s="2">
         <v>329</v>
       </c>
-      <c r="M40" t="s" s="2">
+      <c r="N40" t="s" s="2">
         <v>330</v>
-      </c>
-      <c r="N40" t="s" s="2">
-        <v>331</v>
       </c>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
@@ -6322,67 +6317,67 @@
       </c>
       <c r="Q40" s="2"/>
       <c r="R40" t="s" s="2">
+        <v>331</v>
+      </c>
+      <c r="S40" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="T40" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="U40" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="V40" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="W40" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="X40" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="Y40" t="s" s="2">
         <v>332</v>
       </c>
-      <c r="S40" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="T40" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="U40" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="V40" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="W40" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="X40" t="s" s="2">
-        <v>190</v>
-      </c>
-      <c r="Y40" t="s" s="2">
+      <c r="Z40" t="s" s="2">
         <v>333</v>
       </c>
-      <c r="Z40" t="s" s="2">
+      <c r="AA40" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB40" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC40" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD40" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE40" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF40" t="s" s="2">
+        <v>327</v>
+      </c>
+      <c r="AG40" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AH40" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AI40" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ40" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AK40" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AL40" t="s" s="2">
         <v>334</v>
-      </c>
-      <c r="AA40" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AB40" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AC40" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AD40" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AE40" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AF40" t="s" s="2">
-        <v>328</v>
-      </c>
-      <c r="AG40" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH40" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AI40" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AJ40" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="AK40" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AL40" t="s" s="2">
-        <v>335</v>
       </c>
       <c r="AM40" t="s" s="2">
         <v>20</v>
@@ -6393,10 +6388,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6404,10 +6399,10 @@
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>20</v>
@@ -6419,17 +6414,17 @@
         <v>20</v>
       </c>
       <c r="K41" t="s" s="2">
+        <v>336</v>
+      </c>
+      <c r="L41" t="s" s="2">
         <v>337</v>
       </c>
-      <c r="L41" t="s" s="2">
+      <c r="M41" t="s" s="2">
         <v>338</v>
-      </c>
-      <c r="M41" t="s" s="2">
-        <v>339</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="P41" t="s" s="2">
         <v>20</v>
@@ -6478,19 +6473,19 @@
         <v>20</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AI41" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>20</v>
@@ -6507,10 +6502,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6518,34 +6513,34 @@
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G42" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H42" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I42" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J42" t="s" s="2">
         <v>83</v>
       </c>
-      <c r="H42" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="I42" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="J42" t="s" s="2">
-        <v>84</v>
-      </c>
       <c r="K42" t="s" s="2">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="L42" t="s" s="2">
+        <v>341</v>
+      </c>
+      <c r="M42" t="s" s="2">
         <v>342</v>
       </c>
-      <c r="M42" t="s" s="2">
+      <c r="N42" t="s" s="2">
         <v>343</v>
       </c>
-      <c r="N42" t="s" s="2">
+      <c r="O42" t="s" s="2">
         <v>344</v>
-      </c>
-      <c r="O42" t="s" s="2">
-        <v>345</v>
       </c>
       <c r="P42" t="s" s="2">
         <v>20</v>
@@ -6570,49 +6565,49 @@
         <v>20</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="Y42" t="s" s="2">
+        <v>345</v>
+      </c>
+      <c r="Z42" t="s" s="2">
         <v>346</v>
       </c>
-      <c r="Z42" t="s" s="2">
+      <c r="AA42" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB42" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC42" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD42" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE42" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF42" t="s" s="2">
+        <v>340</v>
+      </c>
+      <c r="AG42" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AH42" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AI42" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ42" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AK42" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AL42" t="s" s="2">
         <v>347</v>
-      </c>
-      <c r="AA42" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AB42" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AC42" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AD42" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AE42" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AF42" t="s" s="2">
-        <v>341</v>
-      </c>
-      <c r="AG42" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH42" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AI42" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AJ42" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="AK42" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AL42" t="s" s="2">
-        <v>348</v>
       </c>
       <c r="AM42" t="s" s="2">
         <v>20</v>
@@ -6623,10 +6618,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6634,10 +6629,10 @@
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>20</v>
@@ -6649,13 +6644,13 @@
         <v>20</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="L43" t="s" s="2">
+        <v>349</v>
+      </c>
+      <c r="M43" t="s" s="2">
         <v>350</v>
-      </c>
-      <c r="M43" t="s" s="2">
-        <v>351</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" s="2"/>
@@ -6682,14 +6677,14 @@
         <v>20</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="Y43" t="s" s="2">
+        <v>351</v>
+      </c>
+      <c r="Z43" t="s" s="2">
         <v>352</v>
       </c>
-      <c r="Z43" t="s" s="2">
-        <v>353</v>
-      </c>
       <c r="AA43" t="s" s="2">
         <v>20</v>
       </c>
@@ -6706,19 +6701,19 @@
         <v>20</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AI43" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>20</v>
@@ -6735,10 +6730,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6746,10 +6741,10 @@
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>20</v>
@@ -6761,13 +6756,13 @@
         <v>20</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="L44" t="s" s="2">
+        <v>354</v>
+      </c>
+      <c r="M44" t="s" s="2">
         <v>355</v>
-      </c>
-      <c r="M44" t="s" s="2">
-        <v>356</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
@@ -6794,14 +6789,14 @@
         <v>20</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="Y44" t="s" s="2">
+        <v>356</v>
+      </c>
+      <c r="Z44" t="s" s="2">
         <v>357</v>
       </c>
-      <c r="Z44" t="s" s="2">
-        <v>358</v>
-      </c>
       <c r="AA44" t="s" s="2">
         <v>20</v>
       </c>
@@ -6818,19 +6813,19 @@
         <v>20</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AI44" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>20</v>
@@ -6847,10 +6842,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -6858,31 +6853,31 @@
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G45" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H45" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I45" t="s" s="2">
         <v>83</v>
       </c>
-      <c r="H45" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="I45" t="s" s="2">
-        <v>84</v>
-      </c>
       <c r="J45" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="L45" t="s" s="2">
+        <v>359</v>
+      </c>
+      <c r="M45" t="s" s="2">
         <v>360</v>
       </c>
-      <c r="M45" t="s" s="2">
+      <c r="N45" t="s" s="2">
         <v>361</v>
-      </c>
-      <c r="N45" t="s" s="2">
-        <v>362</v>
       </c>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
@@ -6932,19 +6927,19 @@
         <v>20</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AI45" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>20</v>
@@ -6961,10 +6956,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -6972,10 +6967,10 @@
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>20</v>
@@ -6987,17 +6982,17 @@
         <v>20</v>
       </c>
       <c r="K46" t="s" s="2">
+        <v>363</v>
+      </c>
+      <c r="L46" t="s" s="2">
         <v>364</v>
       </c>
-      <c r="L46" t="s" s="2">
+      <c r="M46" t="s" s="2">
         <v>365</v>
-      </c>
-      <c r="M46" t="s" s="2">
-        <v>366</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="P46" t="s" s="2">
         <v>20</v>
@@ -7046,25 +7041,25 @@
         <v>20</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AI46" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>20</v>
@@ -7075,21 +7070,21 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>20</v>
@@ -7101,19 +7096,19 @@
         <v>20</v>
       </c>
       <c r="K47" t="s" s="2">
+        <v>370</v>
+      </c>
+      <c r="L47" t="s" s="2">
         <v>371</v>
       </c>
-      <c r="L47" t="s" s="2">
+      <c r="M47" t="s" s="2">
         <v>372</v>
       </c>
-      <c r="M47" t="s" s="2">
+      <c r="N47" t="s" s="2">
         <v>373</v>
       </c>
-      <c r="N47" t="s" s="2">
+      <c r="O47" t="s" s="2">
         <v>374</v>
-      </c>
-      <c r="O47" t="s" s="2">
-        <v>375</v>
       </c>
       <c r="P47" t="s" s="2">
         <v>20</v>
@@ -7162,25 +7157,25 @@
         <v>20</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AI47" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="AM47" t="s" s="2">
         <v>20</v>
@@ -7191,10 +7186,10 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7202,11 +7197,11 @@
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="G48" t="s" s="2">
         <v>75</v>
       </c>
-      <c r="G48" t="s" s="2">
-        <v>76</v>
-      </c>
       <c r="H48" t="s" s="2">
         <v>20</v>
       </c>
@@ -7217,13 +7212,13 @@
         <v>20</v>
       </c>
       <c r="K48" t="s" s="2">
+        <v>377</v>
+      </c>
+      <c r="L48" t="s" s="2">
         <v>378</v>
       </c>
-      <c r="L48" t="s" s="2">
+      <c r="M48" t="s" s="2">
         <v>379</v>
-      </c>
-      <c r="M48" t="s" s="2">
-        <v>380</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" s="2"/>
@@ -7274,25 +7269,25 @@
         <v>20</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="AG48" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AH48" t="s" s="2">
         <v>75</v>
       </c>
-      <c r="AH48" t="s" s="2">
-        <v>76</v>
-      </c>
       <c r="AI48" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="AM48" t="s" s="2">
         <v>20</v>
@@ -7303,10 +7298,10 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7314,10 +7309,10 @@
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>20</v>
@@ -7329,13 +7324,13 @@
         <v>20</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="L49" t="s" s="2">
+        <v>382</v>
+      </c>
+      <c r="M49" t="s" s="2">
         <v>383</v>
-      </c>
-      <c r="M49" t="s" s="2">
-        <v>384</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" s="2"/>
@@ -7386,25 +7381,25 @@
         <v>20</v>
       </c>
       <c r="AF49" t="s" s="2">
+        <v>384</v>
+      </c>
+      <c r="AG49" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AH49" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AI49" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ49" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AK49" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AL49" t="s" s="2">
         <v>385</v>
-      </c>
-      <c r="AG49" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH49" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AI49" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AJ49" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AK49" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AL49" t="s" s="2">
-        <v>386</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>20</v>
@@ -7415,22 +7410,22 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="G50" t="s" s="2">
         <v>75</v>
       </c>
-      <c r="G50" t="s" s="2">
-        <v>76</v>
-      </c>
       <c r="H50" t="s" s="2">
         <v>20</v>
       </c>
@@ -7441,16 +7436,16 @@
         <v>20</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="L50" t="s" s="2">
+        <v>387</v>
+      </c>
+      <c r="M50" t="s" s="2">
         <v>388</v>
       </c>
-      <c r="M50" t="s" s="2">
-        <v>389</v>
-      </c>
       <c r="N50" t="s" s="2">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
@@ -7500,25 +7495,25 @@
         <v>20</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="AG50" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AH50" t="s" s="2">
         <v>75</v>
       </c>
-      <c r="AH50" t="s" s="2">
-        <v>76</v>
-      </c>
       <c r="AI50" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>20</v>
@@ -7529,45 +7524,45 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="G51" t="s" s="2">
         <v>75</v>
       </c>
-      <c r="G51" t="s" s="2">
-        <v>76</v>
-      </c>
       <c r="H51" t="s" s="2">
         <v>20</v>
       </c>
       <c r="I51" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="L51" t="s" s="2">
+        <v>392</v>
+      </c>
+      <c r="M51" t="s" s="2">
         <v>393</v>
       </c>
-      <c r="M51" t="s" s="2">
-        <v>394</v>
-      </c>
       <c r="N51" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="O51" t="s" s="2">
         <v>143</v>
-      </c>
-      <c r="O51" t="s" s="2">
-        <v>144</v>
       </c>
       <c r="P51" t="s" s="2">
         <v>20</v>
@@ -7616,25 +7611,25 @@
         <v>20</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="AG51" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AH51" t="s" s="2">
         <v>75</v>
       </c>
-      <c r="AH51" t="s" s="2">
-        <v>76</v>
-      </c>
       <c r="AI51" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AK51" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>20</v>
@@ -7645,10 +7640,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7656,10 +7651,10 @@
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>20</v>
@@ -7671,13 +7666,13 @@
         <v>20</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="L52" t="s" s="2">
+        <v>396</v>
+      </c>
+      <c r="M52" t="s" s="2">
         <v>397</v>
-      </c>
-      <c r="M52" t="s" s="2">
-        <v>398</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" s="2"/>
@@ -7704,49 +7699,49 @@
         <v>20</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="Y52" t="s" s="2">
+        <v>398</v>
+      </c>
+      <c r="Z52" t="s" s="2">
         <v>399</v>
       </c>
-      <c r="Z52" t="s" s="2">
+      <c r="AA52" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB52" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC52" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD52" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE52" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF52" t="s" s="2">
+        <v>395</v>
+      </c>
+      <c r="AG52" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH52" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AI52" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ52" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AK52" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AL52" t="s" s="2">
         <v>400</v>
-      </c>
-      <c r="AA52" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AB52" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AC52" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AD52" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AE52" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AF52" t="s" s="2">
-        <v>396</v>
-      </c>
-      <c r="AG52" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AH52" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AI52" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AJ52" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="AK52" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AL52" t="s" s="2">
-        <v>401</v>
       </c>
       <c r="AM52" t="s" s="2">
         <v>20</v>
@@ -7757,10 +7752,10 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -7768,10 +7763,10 @@
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H53" t="s" s="2">
         <v>20</v>
@@ -7783,13 +7778,13 @@
         <v>20</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="L53" t="s" s="2">
+        <v>402</v>
+      </c>
+      <c r="M53" t="s" s="2">
         <v>403</v>
-      </c>
-      <c r="M53" t="s" s="2">
-        <v>404</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" s="2"/>
@@ -7816,49 +7811,49 @@
         <v>20</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="Y53" t="s" s="2">
+        <v>404</v>
+      </c>
+      <c r="Z53" t="s" s="2">
         <v>405</v>
       </c>
-      <c r="Z53" t="s" s="2">
+      <c r="AA53" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB53" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC53" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD53" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE53" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF53" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="AG53" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AH53" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AI53" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ53" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AK53" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AL53" t="s" s="2">
         <v>406</v>
-      </c>
-      <c r="AA53" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AB53" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AC53" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AD53" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AE53" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AF53" t="s" s="2">
-        <v>402</v>
-      </c>
-      <c r="AG53" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH53" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AI53" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AJ53" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="AK53" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AL53" t="s" s="2">
-        <v>407</v>
       </c>
       <c r="AM53" t="s" s="2">
         <v>20</v>
@@ -7869,10 +7864,10 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -7880,10 +7875,10 @@
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H54" t="s" s="2">
         <v>20</v>
@@ -7895,13 +7890,13 @@
         <v>20</v>
       </c>
       <c r="K54" t="s" s="2">
+        <v>408</v>
+      </c>
+      <c r="L54" t="s" s="2">
         <v>409</v>
       </c>
-      <c r="L54" t="s" s="2">
+      <c r="M54" t="s" s="2">
         <v>410</v>
-      </c>
-      <c r="M54" t="s" s="2">
-        <v>411</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" s="2"/>
@@ -7928,49 +7923,49 @@
         <v>20</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="Y54" t="s" s="2">
+        <v>411</v>
+      </c>
+      <c r="Z54" t="s" s="2">
         <v>412</v>
       </c>
-      <c r="Z54" t="s" s="2">
+      <c r="AA54" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB54" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC54" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD54" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE54" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF54" t="s" s="2">
+        <v>407</v>
+      </c>
+      <c r="AG54" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AH54" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AI54" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ54" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AK54" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AL54" t="s" s="2">
         <v>413</v>
-      </c>
-      <c r="AA54" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AB54" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AC54" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AD54" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AE54" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AF54" t="s" s="2">
-        <v>408</v>
-      </c>
-      <c r="AG54" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH54" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AI54" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AJ54" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="AK54" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AL54" t="s" s="2">
-        <v>414</v>
       </c>
       <c r="AM54" t="s" s="2">
         <v>20</v>
@@ -7981,21 +7976,21 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>20</v>
@@ -8007,13 +8002,13 @@
         <v>20</v>
       </c>
       <c r="K55" t="s" s="2">
+        <v>416</v>
+      </c>
+      <c r="L55" t="s" s="2">
         <v>417</v>
       </c>
-      <c r="L55" t="s" s="2">
+      <c r="M55" t="s" s="2">
         <v>418</v>
-      </c>
-      <c r="M55" t="s" s="2">
-        <v>419</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" s="2"/>
@@ -8064,25 +8059,25 @@
         <v>20</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="AG55" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AI55" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AK55" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="AM55" t="s" s="2">
         <v>20</v>
@@ -8093,10 +8088,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8104,11 +8099,11 @@
       </c>
       <c r="E56" s="2"/>
       <c r="F56" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="G56" t="s" s="2">
         <v>75</v>
       </c>
-      <c r="G56" t="s" s="2">
-        <v>76</v>
-      </c>
       <c r="H56" t="s" s="2">
         <v>20</v>
       </c>
@@ -8119,16 +8114,16 @@
         <v>20</v>
       </c>
       <c r="K56" t="s" s="2">
+        <v>421</v>
+      </c>
+      <c r="L56" t="s" s="2">
         <v>422</v>
       </c>
-      <c r="L56" t="s" s="2">
+      <c r="M56" t="s" s="2">
         <v>423</v>
       </c>
-      <c r="M56" t="s" s="2">
+      <c r="N56" t="s" s="2">
         <v>424</v>
-      </c>
-      <c r="N56" t="s" s="2">
-        <v>425</v>
       </c>
       <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
@@ -8178,25 +8173,25 @@
         <v>20</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="AG56" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AH56" t="s" s="2">
         <v>75</v>
       </c>
-      <c r="AH56" t="s" s="2">
-        <v>76</v>
-      </c>
       <c r="AI56" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AK56" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="AM56" t="s" s="2">
         <v>20</v>
@@ -8207,10 +8202,10 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8218,11 +8213,11 @@
       </c>
       <c r="E57" s="2"/>
       <c r="F57" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="G57" t="s" s="2">
         <v>75</v>
       </c>
-      <c r="G57" t="s" s="2">
-        <v>76</v>
-      </c>
       <c r="H57" t="s" s="2">
         <v>20</v>
       </c>
@@ -8233,19 +8228,19 @@
         <v>20</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="L57" t="s" s="2">
+        <v>427</v>
+      </c>
+      <c r="M57" t="s" s="2">
         <v>428</v>
       </c>
-      <c r="M57" t="s" s="2">
+      <c r="N57" t="s" s="2">
         <v>429</v>
       </c>
-      <c r="N57" t="s" s="2">
+      <c r="O57" t="s" s="2">
         <v>430</v>
-      </c>
-      <c r="O57" t="s" s="2">
-        <v>431</v>
       </c>
       <c r="P57" t="s" s="2">
         <v>20</v>
@@ -8270,49 +8265,49 @@
         <v>20</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="Y57" t="s" s="2">
+        <v>431</v>
+      </c>
+      <c r="Z57" t="s" s="2">
         <v>432</v>
       </c>
-      <c r="Z57" t="s" s="2">
+      <c r="AA57" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB57" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC57" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD57" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE57" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF57" t="s" s="2">
+        <v>426</v>
+      </c>
+      <c r="AG57" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AH57" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI57" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ57" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AK57" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AL57" t="s" s="2">
         <v>433</v>
-      </c>
-      <c r="AA57" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AB57" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AC57" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AD57" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AE57" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AF57" t="s" s="2">
-        <v>427</v>
-      </c>
-      <c r="AG57" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH57" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AI57" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AJ57" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="AK57" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AL57" t="s" s="2">
-        <v>434</v>
       </c>
       <c r="AM57" t="s" s="2">
         <v>20</v>
@@ -8323,10 +8318,10 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8334,11 +8329,11 @@
       </c>
       <c r="E58" s="2"/>
       <c r="F58" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="G58" t="s" s="2">
         <v>75</v>
       </c>
-      <c r="G58" t="s" s="2">
-        <v>76</v>
-      </c>
       <c r="H58" t="s" s="2">
         <v>20</v>
       </c>
@@ -8349,17 +8344,17 @@
         <v>20</v>
       </c>
       <c r="K58" t="s" s="2">
+        <v>435</v>
+      </c>
+      <c r="L58" t="s" s="2">
         <v>436</v>
       </c>
-      <c r="L58" t="s" s="2">
+      <c r="M58" t="s" s="2">
         <v>437</v>
-      </c>
-      <c r="M58" t="s" s="2">
-        <v>438</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="P58" t="s" s="2">
         <v>20</v>
@@ -8408,19 +8403,19 @@
         <v>20</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="AG58" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AH58" t="s" s="2">
         <v>75</v>
       </c>
-      <c r="AH58" t="s" s="2">
-        <v>76</v>
-      </c>
       <c r="AI58" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AK58" t="s" s="2">
         <v>20</v>
@@ -8437,10 +8432,10 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -8448,11 +8443,11 @@
       </c>
       <c r="E59" s="2"/>
       <c r="F59" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="G59" t="s" s="2">
         <v>75</v>
       </c>
-      <c r="G59" t="s" s="2">
-        <v>76</v>
-      </c>
       <c r="H59" t="s" s="2">
         <v>20</v>
       </c>
@@ -8463,17 +8458,17 @@
         <v>20</v>
       </c>
       <c r="K59" t="s" s="2">
+        <v>440</v>
+      </c>
+      <c r="L59" t="s" s="2">
         <v>441</v>
       </c>
-      <c r="L59" t="s" s="2">
+      <c r="M59" t="s" s="2">
         <v>442</v>
-      </c>
-      <c r="M59" t="s" s="2">
-        <v>443</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="P59" t="s" s="2">
         <v>20</v>
@@ -8522,19 +8517,19 @@
         <v>20</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="AG59" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AH59" t="s" s="2">
         <v>75</v>
       </c>
-      <c r="AH59" t="s" s="2">
-        <v>76</v>
-      </c>
       <c r="AI59" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AK59" t="s" s="2">
         <v>20</v>
@@ -8551,10 +8546,10 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -8562,11 +8557,11 @@
       </c>
       <c r="E60" s="2"/>
       <c r="F60" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="G60" t="s" s="2">
         <v>75</v>
       </c>
-      <c r="G60" t="s" s="2">
-        <v>76</v>
-      </c>
       <c r="H60" t="s" s="2">
         <v>20</v>
       </c>
@@ -8577,13 +8572,13 @@
         <v>20</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="L60" t="s" s="2">
+        <v>445</v>
+      </c>
+      <c r="M60" t="s" s="2">
         <v>446</v>
-      </c>
-      <c r="M60" t="s" s="2">
-        <v>447</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" s="2"/>
@@ -8634,19 +8629,19 @@
         <v>20</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="AG60" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AH60" t="s" s="2">
         <v>75</v>
       </c>
-      <c r="AH60" t="s" s="2">
-        <v>76</v>
-      </c>
       <c r="AI60" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AK60" t="s" s="2">
         <v>20</v>
@@ -8663,10 +8658,10 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -8674,10 +8669,10 @@
       </c>
       <c r="E61" s="2"/>
       <c r="F61" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H61" t="s" s="2">
         <v>20</v>
@@ -8689,16 +8684,16 @@
         <v>20</v>
       </c>
       <c r="K61" t="s" s="2">
+        <v>448</v>
+      </c>
+      <c r="L61" t="s" s="2">
         <v>449</v>
       </c>
-      <c r="L61" t="s" s="2">
+      <c r="M61" t="s" s="2">
         <v>450</v>
       </c>
-      <c r="M61" t="s" s="2">
+      <c r="N61" t="s" s="2">
         <v>451</v>
-      </c>
-      <c r="N61" t="s" s="2">
-        <v>452</v>
       </c>
       <c r="O61" s="2"/>
       <c r="P61" t="s" s="2">
@@ -8748,25 +8743,25 @@
         <v>20</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="AG61" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AI61" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AK61" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="AM61" t="s" s="2">
         <v>20</v>
@@ -8777,10 +8772,10 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -8788,11 +8783,11 @@
       </c>
       <c r="E62" s="2"/>
       <c r="F62" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="G62" t="s" s="2">
         <v>75</v>
       </c>
-      <c r="G62" t="s" s="2">
-        <v>76</v>
-      </c>
       <c r="H62" t="s" s="2">
         <v>20</v>
       </c>
@@ -8803,16 +8798,16 @@
         <v>20</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="L62" t="s" s="2">
+        <v>453</v>
+      </c>
+      <c r="M62" t="s" s="2">
         <v>454</v>
       </c>
-      <c r="M62" t="s" s="2">
+      <c r="N62" t="s" s="2">
         <v>455</v>
-      </c>
-      <c r="N62" t="s" s="2">
-        <v>456</v>
       </c>
       <c r="O62" s="2"/>
       <c r="P62" t="s" s="2">
@@ -8862,25 +8857,25 @@
         <v>20</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="AG62" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AH62" t="s" s="2">
         <v>75</v>
       </c>
-      <c r="AH62" t="s" s="2">
-        <v>76</v>
-      </c>
       <c r="AI62" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AK62" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="AM62" t="s" s="2">
         <v>20</v>
@@ -8891,10 +8886,10 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -8902,10 +8897,10 @@
       </c>
       <c r="E63" s="2"/>
       <c r="F63" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G63" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H63" t="s" s="2">
         <v>20</v>
@@ -8917,13 +8912,13 @@
         <v>20</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="L63" t="s" s="2">
+        <v>382</v>
+      </c>
+      <c r="M63" t="s" s="2">
         <v>383</v>
-      </c>
-      <c r="M63" t="s" s="2">
-        <v>384</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" s="2"/>
@@ -8974,25 +8969,25 @@
         <v>20</v>
       </c>
       <c r="AF63" t="s" s="2">
+        <v>384</v>
+      </c>
+      <c r="AG63" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AH63" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AI63" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ63" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AK63" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AL63" t="s" s="2">
         <v>385</v>
-      </c>
-      <c r="AG63" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH63" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AI63" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AJ63" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AK63" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AL63" t="s" s="2">
-        <v>386</v>
       </c>
       <c r="AM63" t="s" s="2">
         <v>20</v>
@@ -9003,22 +8998,22 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E64" s="2"/>
       <c r="F64" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="G64" t="s" s="2">
         <v>75</v>
       </c>
-      <c r="G64" t="s" s="2">
-        <v>76</v>
-      </c>
       <c r="H64" t="s" s="2">
         <v>20</v>
       </c>
@@ -9029,16 +9024,16 @@
         <v>20</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="L64" t="s" s="2">
+        <v>387</v>
+      </c>
+      <c r="M64" t="s" s="2">
         <v>388</v>
       </c>
-      <c r="M64" t="s" s="2">
-        <v>389</v>
-      </c>
       <c r="N64" t="s" s="2">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="O64" s="2"/>
       <c r="P64" t="s" s="2">
@@ -9088,25 +9083,25 @@
         <v>20</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="AG64" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AH64" t="s" s="2">
         <v>75</v>
       </c>
-      <c r="AH64" t="s" s="2">
-        <v>76</v>
-      </c>
       <c r="AI64" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AK64" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="AM64" t="s" s="2">
         <v>20</v>
@@ -9117,45 +9112,45 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="E65" s="2"/>
       <c r="F65" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="G65" t="s" s="2">
         <v>75</v>
       </c>
-      <c r="G65" t="s" s="2">
-        <v>76</v>
-      </c>
       <c r="H65" t="s" s="2">
         <v>20</v>
       </c>
       <c r="I65" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="L65" t="s" s="2">
+        <v>392</v>
+      </c>
+      <c r="M65" t="s" s="2">
         <v>393</v>
       </c>
-      <c r="M65" t="s" s="2">
-        <v>394</v>
-      </c>
       <c r="N65" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="O65" t="s" s="2">
         <v>143</v>
-      </c>
-      <c r="O65" t="s" s="2">
-        <v>144</v>
       </c>
       <c r="P65" t="s" s="2">
         <v>20</v>
@@ -9204,25 +9199,25 @@
         <v>20</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="AG65" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AH65" t="s" s="2">
         <v>75</v>
       </c>
-      <c r="AH65" t="s" s="2">
-        <v>76</v>
-      </c>
       <c r="AI65" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AK65" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="AM65" t="s" s="2">
         <v>20</v>
@@ -9233,10 +9228,10 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -9244,10 +9239,10 @@
       </c>
       <c r="E66" s="2"/>
       <c r="F66" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G66" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H66" t="s" s="2">
         <v>20</v>
@@ -9259,16 +9254,16 @@
         <v>20</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="L66" t="s" s="2">
+        <v>460</v>
+      </c>
+      <c r="M66" t="s" s="2">
         <v>461</v>
       </c>
-      <c r="M66" t="s" s="2">
+      <c r="N66" t="s" s="2">
         <v>462</v>
-      </c>
-      <c r="N66" t="s" s="2">
-        <v>463</v>
       </c>
       <c r="O66" s="2"/>
       <c r="P66" t="s" s="2">
@@ -9318,25 +9313,25 @@
         <v>20</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="AG66" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AH66" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AI66" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AK66" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="AM66" t="s" s="2">
         <v>20</v>
@@ -9347,10 +9342,10 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -9358,10 +9353,10 @@
       </c>
       <c r="E67" s="2"/>
       <c r="F67" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G67" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H67" t="s" s="2">
         <v>20</v>
@@ -9373,16 +9368,16 @@
         <v>20</v>
       </c>
       <c r="K67" t="s" s="2">
+        <v>464</v>
+      </c>
+      <c r="L67" t="s" s="2">
         <v>465</v>
       </c>
-      <c r="L67" t="s" s="2">
+      <c r="M67" t="s" s="2">
         <v>466</v>
       </c>
-      <c r="M67" t="s" s="2">
+      <c r="N67" t="s" s="2">
         <v>467</v>
-      </c>
-      <c r="N67" t="s" s="2">
-        <v>468</v>
       </c>
       <c r="O67" s="2"/>
       <c r="P67" t="s" s="2">
@@ -9432,25 +9427,25 @@
         <v>20</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="AG67" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AH67" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AI67" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AK67" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="AM67" t="s" s="2">
         <v>20</v>
